--- a/teaching/traditional_assets/database/data/turkey/turkey_computers_peripherals.xlsx
+++ b/teaching/traditional_assets/database/data/turkey/turkey_computers_peripherals.xlsx
@@ -647,10 +647,10 @@
         <v>0.05131351266320592</v>
       </c>
       <c r="X2">
-        <v>0.134219593425336</v>
+        <v>0.1336592958164599</v>
       </c>
       <c r="Y2">
-        <v>-0.08290608076213005</v>
+        <v>-0.08234578315325403</v>
       </c>
       <c r="Z2">
         <v>2.001201163231761</v>
@@ -659,10 +659,10 @@
         <v>0.07057904581141902</v>
       </c>
       <c r="AB2">
-        <v>0.1340345780351406</v>
+        <v>0.1334625523505352</v>
       </c>
       <c r="AC2">
-        <v>-0.06345553222372159</v>
+        <v>-0.06288350653911616</v>
       </c>
       <c r="AD2">
         <v>0.231</v>
@@ -778,10 +778,10 @@
         <v>0.07955010224948876</v>
       </c>
       <c r="X3">
-        <v>0.1344599268234365</v>
+        <v>0.1339116838823572</v>
       </c>
       <c r="Y3">
-        <v>-0.05490982457394773</v>
+        <v>-0.05436158163286843</v>
       </c>
       <c r="Z3">
         <v>5.728788977519943</v>
@@ -790,10 +790,10 @@
         <v>0.1645516074450085</v>
       </c>
       <c r="AB3">
-        <v>0.1340898960430458</v>
+        <v>0.1335181969505077</v>
       </c>
       <c r="AC3">
-        <v>0.03046171140196272</v>
+        <v>0.03103341049450081</v>
       </c>
       <c r="AD3">
         <v>0.231</v>
@@ -909,10 +909,10 @@
         <v>0.02307692307692307</v>
       </c>
       <c r="X4">
-        <v>0.1339792600272355</v>
+        <v>0.1334069077505627</v>
       </c>
       <c r="Y4">
-        <v>-0.1109023369503124</v>
+        <v>-0.1103299846736396</v>
       </c>
       <c r="Z4">
         <v>0.005338769171034751</v>
@@ -921,10 +921,10 @@
         <v>-0.02339351582217045</v>
       </c>
       <c r="AB4">
-        <v>0.1339792600272355</v>
+        <v>0.1334069077505627</v>
       </c>
       <c r="AC4">
-        <v>-0.1573727758494059</v>
+        <v>-0.1568004235727331</v>
       </c>
       <c r="AD4">
         <v>0</v>
@@ -1224,37 +1224,37 @@
         <v>0.00518739754328445</v>
       </c>
       <c r="F2">
-        <v>0.2</v>
+        <v>0.26</v>
       </c>
       <c r="G2">
         <v>44.3</v>
       </c>
       <c r="H2">
-        <v>37.094303484601</v>
+        <v>34.7627045133825</v>
       </c>
       <c r="I2">
         <v>42.751</v>
       </c>
       <c r="J2">
-        <v>44.220503484601</v>
+        <v>44.5607645133825</v>
       </c>
       <c r="K2">
         <v>0.231</v>
       </c>
       <c r="L2">
-        <v>8.9062</v>
+        <v>11.57806</v>
       </c>
       <c r="M2">
-        <v>0.134089896043046</v>
+        <v>0.133518196950508</v>
       </c>
       <c r="N2">
-        <v>0.130158972586037</v>
+        <v>0.128473272627231</v>
       </c>
       <c r="O2">
-        <v>0.0631272831802361</v>
+        <v>0.058057283180236</v>
       </c>
       <c r="P2">
-        <v>0.022698</v>
+        <v>0.017628</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -1267,19 +1267,19 @@
         </is>
       </c>
       <c r="S2">
-        <v>0.134459926823436</v>
+        <v>0.133911683882357</v>
       </c>
       <c r="T2">
-        <v>0.157024215732546</v>
+        <v>0.167418908955717</v>
       </c>
       <c r="U2">
         <v>1.23994938727514</v>
       </c>
       <c r="V2">
-        <v>1.47573729778668</v>
+        <v>1.57336325268945</v>
       </c>
       <c r="W2">
-        <v>4.59157337477016</v>
+        <v>4.547814336480997</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -1288,16 +1288,16 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.0158</v>
+        <v>0.009299999999999999</v>
       </c>
       <c r="AA2">
         <v>44.3</v>
       </c>
       <c r="AB2">
-        <v>0.09569739542691996</v>
+        <v>0.10049739542692</v>
       </c>
       <c r="AC2">
-        <v>0.08093241433363596</v>
+        <v>0.07443241433363595</v>
       </c>
       <c r="AD2">
         <v>0.22</v>
@@ -1492,13 +1492,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1339792600272355</v>
+        <v>0.1334069077505627</v>
       </c>
       <c r="C2">
-        <v>44.57102225357323</v>
+        <v>44.56933569519281</v>
       </c>
       <c r="D2">
-        <v>42.79102225357322</v>
+        <v>42.78933569519281</v>
       </c>
       <c r="E2">
         <v>-0.231</v>
@@ -1543,19 +1543,19 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1339792600272355</v>
+        <v>0.1334069077505627</v>
       </c>
       <c r="T2">
         <v>1.234926609026511</v>
       </c>
       <c r="U2">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V2">
         <v>0.22</v>
       </c>
       <c r="W2">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X2" t="inlineStr">
         <is>
@@ -1574,13 +1574,13 @@
         <v>0.01</v>
       </c>
       <c r="B3">
-        <v>0.1337383256551755</v>
+        <v>0.1331672325535115</v>
       </c>
       <c r="C3">
-        <v>44.21312936772331</v>
+        <v>44.20682033145795</v>
       </c>
       <c r="D3">
-        <v>42.87843936772331</v>
+        <v>42.87213033145795</v>
       </c>
       <c r="E3">
         <v>0.21431</v>
@@ -1607,37 +1607,37 @@
         <v>1.19</v>
       </c>
       <c r="M3">
-        <v>0.010108537</v>
+        <v>0.007214022</v>
       </c>
       <c r="N3">
-        <v>1.179891463</v>
+        <v>1.182785978</v>
       </c>
       <c r="O3">
-        <v>0.25957612186</v>
+        <v>0.2602129151599999</v>
       </c>
       <c r="P3">
-        <v>0.9203153411399999</v>
+        <v>0.92257306284</v>
       </c>
       <c r="Q3">
-        <v>1.11031534114</v>
+        <v>1.11257306284</v>
       </c>
       <c r="R3">
         <v>0.0101010101010101</v>
       </c>
       <c r="S3">
-        <v>0.1349103693486621</v>
+        <v>0.1343847197510217</v>
       </c>
       <c r="T3">
         <v>1.244656333824902</v>
       </c>
       <c r="U3">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V3">
         <v>0.22</v>
       </c>
       <c r="W3">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X3" t="inlineStr">
         <is>
@@ -1645,7 +1645,7 @@
         </is>
       </c>
       <c r="Y3">
-        <v>117.7222777143715</v>
+        <v>164.9565249454465</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -1656,13 +1656,13 @@
         <v>0.02</v>
       </c>
       <c r="B4">
-        <v>0.1334973912831156</v>
+        <v>0.1329275573564602</v>
       </c>
       <c r="C4">
-        <v>43.85559437914324</v>
+        <v>43.84462599357178</v>
       </c>
       <c r="D4">
-        <v>42.96621437914324</v>
+        <v>42.95524599357178</v>
       </c>
       <c r="E4">
         <v>0.65962</v>
@@ -1689,37 +1689,37 @@
         <v>1.19</v>
       </c>
       <c r="M4">
-        <v>0.020217074</v>
+        <v>0.014428044</v>
       </c>
       <c r="N4">
-        <v>1.169782926</v>
+        <v>1.175571956</v>
       </c>
       <c r="O4">
-        <v>0.25735224372</v>
+        <v>0.25862583032</v>
       </c>
       <c r="P4">
-        <v>0.9124306822799999</v>
+        <v>0.91694612568</v>
       </c>
       <c r="Q4">
-        <v>1.10243068228</v>
+        <v>1.10694612568</v>
       </c>
       <c r="R4">
         <v>0.02040816326530612</v>
       </c>
       <c r="S4">
-        <v>0.1358604809011384</v>
+        <v>0.1353824870984288</v>
       </c>
       <c r="T4">
         <v>1.254584624435505</v>
       </c>
       <c r="U4">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V4">
         <v>0.22</v>
       </c>
       <c r="W4">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X4" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         </is>
       </c>
       <c r="Y4">
-        <v>58.86113885718575</v>
+        <v>82.47826247272326</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -1738,13 +1738,13 @@
         <v>0.03</v>
       </c>
       <c r="B5">
-        <v>0.1332564569110557</v>
+        <v>0.132687882159409</v>
       </c>
       <c r="C5">
-        <v>43.49841949025996</v>
+        <v>43.48275455226747</v>
       </c>
       <c r="D5">
-        <v>43.05434949025995</v>
+        <v>43.03868455226746</v>
       </c>
       <c r="E5">
         <v>1.10493</v>
@@ -1771,37 +1771,37 @@
         <v>1.19</v>
       </c>
       <c r="M5">
-        <v>0.030325611</v>
+        <v>0.02164206599999999</v>
       </c>
       <c r="N5">
-        <v>1.159674389</v>
+        <v>1.168357934</v>
       </c>
       <c r="O5">
-        <v>0.25512836558</v>
+        <v>0.25703874548</v>
       </c>
       <c r="P5">
-        <v>0.9045460234199999</v>
+        <v>0.9113191885199998</v>
       </c>
       <c r="Q5">
-        <v>1.09454602342</v>
+        <v>1.10131918852</v>
       </c>
       <c r="R5">
         <v>0.03092783505154639</v>
       </c>
       <c r="S5">
-        <v>0.1368301823825316</v>
+        <v>0.1364008269684629</v>
       </c>
       <c r="T5">
         <v>1.264717622069007</v>
       </c>
       <c r="U5">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V5">
         <v>0.22</v>
       </c>
       <c r="W5">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X5" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
         </is>
       </c>
       <c r="Y5">
-        <v>39.24075923812384</v>
+        <v>54.98550831514885</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -1820,13 +1820,13 @@
         <v>0.04</v>
       </c>
       <c r="B6">
-        <v>0.1330155225389958</v>
+        <v>0.1324482069623577</v>
       </c>
       <c r="C6">
-        <v>43.14160692160855</v>
+        <v>43.12120789284167</v>
       </c>
       <c r="D6">
-        <v>43.14284692160854</v>
+        <v>43.12244789284167</v>
       </c>
       <c r="E6">
         <v>1.55024</v>
@@ -1853,37 +1853,37 @@
         <v>1.19</v>
       </c>
       <c r="M6">
-        <v>0.040434148</v>
+        <v>0.028856088</v>
       </c>
       <c r="N6">
-        <v>1.149565852</v>
+        <v>1.161143912</v>
       </c>
       <c r="O6">
-        <v>0.25290448744</v>
+        <v>0.25545166064</v>
       </c>
       <c r="P6">
-        <v>0.8966613645599999</v>
+        <v>0.90569225136</v>
       </c>
       <c r="Q6">
-        <v>1.08666136456</v>
+        <v>1.09569225136</v>
       </c>
       <c r="R6">
         <v>0.04166666666666667</v>
       </c>
       <c r="S6">
-        <v>0.1378200859781206</v>
+        <v>0.137440382252456</v>
       </c>
       <c r="T6">
         <v>1.275061723819873</v>
       </c>
       <c r="U6">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V6">
         <v>0.22</v>
       </c>
       <c r="W6">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X6" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="Y6">
-        <v>29.43056942859288</v>
+        <v>41.23913123636163</v>
       </c>
       <c r="Z6">
         <v>0</v>
@@ -1902,13 +1902,13 @@
         <v>0.05</v>
       </c>
       <c r="B7">
-        <v>0.1327745881669359</v>
+        <v>0.1322085317653065</v>
       </c>
       <c r="C7">
-        <v>42.78515891201879</v>
+        <v>42.75998791529661</v>
       </c>
       <c r="D7">
-        <v>43.2317089120188</v>
+        <v>43.20653791529661</v>
       </c>
       <c r="E7">
         <v>1.99555</v>
@@ -1935,37 +1935,37 @@
         <v>1.19</v>
       </c>
       <c r="M7">
-        <v>0.050542685</v>
+        <v>0.03607011</v>
       </c>
       <c r="N7">
-        <v>1.139457315</v>
+        <v>1.15392989</v>
       </c>
       <c r="O7">
-        <v>0.2506806093</v>
+        <v>0.2538645758</v>
       </c>
       <c r="P7">
-        <v>0.8887767057</v>
+        <v>0.9000653141999999</v>
       </c>
       <c r="Q7">
-        <v>1.0787767057</v>
+        <v>1.0900653142</v>
       </c>
       <c r="R7">
         <v>0.05263157894736843</v>
       </c>
       <c r="S7">
-        <v>0.1388308296494062</v>
+        <v>0.138501822910849</v>
       </c>
       <c r="T7">
         <v>1.285623596133916</v>
       </c>
       <c r="U7">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V7">
         <v>0.22</v>
       </c>
       <c r="W7">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X7" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         </is>
       </c>
       <c r="Y7">
-        <v>23.5444555428743</v>
+        <v>32.9913049890893</v>
       </c>
       <c r="Z7">
         <v>0</v>
@@ -1984,13 +1984,13 @@
         <v>0.06</v>
       </c>
       <c r="B8">
-        <v>0.1325336537948759</v>
+        <v>0.1319688565682553</v>
       </c>
       <c r="C8">
-        <v>42.42907771880401</v>
+        <v>42.39909653448369</v>
       </c>
       <c r="D8">
-        <v>43.32093771880401</v>
+        <v>43.29095653448369</v>
       </c>
       <c r="E8">
         <v>2.44086</v>
@@ -2017,37 +2017,37 @@
         <v>1.19</v>
       </c>
       <c r="M8">
-        <v>0.060651222</v>
+        <v>0.04328413199999999</v>
       </c>
       <c r="N8">
-        <v>1.129348778</v>
+        <v>1.146715868</v>
       </c>
       <c r="O8">
-        <v>0.24845673116</v>
+        <v>0.25227749096</v>
       </c>
       <c r="P8">
-        <v>0.88089204684</v>
+        <v>0.89443837704</v>
       </c>
       <c r="Q8">
-        <v>1.07089204684</v>
+        <v>1.08443837704</v>
       </c>
       <c r="R8">
         <v>0.06382978723404255</v>
       </c>
       <c r="S8">
-        <v>0.1398630785051872</v>
+        <v>0.1395858474130375</v>
       </c>
       <c r="T8">
         <v>1.296410189135491</v>
       </c>
       <c r="U8">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V8">
         <v>0.22</v>
       </c>
       <c r="W8">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X8" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         </is>
       </c>
       <c r="Y8">
-        <v>19.62037961906192</v>
+        <v>27.49275415757443</v>
       </c>
       <c r="Z8">
         <v>0</v>
@@ -2066,13 +2066,13 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="B9">
-        <v>0.132292719422816</v>
+        <v>0.131729181371204</v>
       </c>
       <c r="C9">
-        <v>42.07336561795204</v>
+        <v>42.03853568024886</v>
       </c>
       <c r="D9">
-        <v>43.41053561795204</v>
+        <v>43.37570568024886</v>
       </c>
       <c r="E9">
         <v>2.88617</v>
@@ -2099,37 +2099,37 @@
         <v>1.19</v>
       </c>
       <c r="M9">
-        <v>0.07075975900000001</v>
+        <v>0.050498154</v>
       </c>
       <c r="N9">
-        <v>1.119240241</v>
+        <v>1.139501846</v>
       </c>
       <c r="O9">
-        <v>0.24623285302</v>
+        <v>0.25069040612</v>
       </c>
       <c r="P9">
-        <v>0.87300738798</v>
+        <v>0.88881143988</v>
       </c>
       <c r="Q9">
-        <v>1.06300738798</v>
+        <v>1.07881143988</v>
       </c>
       <c r="R9">
         <v>0.07526881720430109</v>
       </c>
       <c r="S9">
-        <v>0.1409175262610925</v>
+        <v>0.1406931842701119</v>
       </c>
       <c r="T9">
         <v>1.307428751879036</v>
       </c>
       <c r="U9">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V9">
         <v>0.22</v>
       </c>
       <c r="W9">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X9" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         </is>
       </c>
       <c r="Y9">
-        <v>16.81746824491022</v>
+        <v>23.5652178493495</v>
       </c>
       <c r="Z9">
         <v>0</v>
@@ -2148,13 +2148,13 @@
         <v>0.08</v>
       </c>
       <c r="B10">
-        <v>0.1320517850507561</v>
+        <v>0.1314895061741528</v>
       </c>
       <c r="C10">
-        <v>41.71802490431895</v>
+        <v>41.67830729757968</v>
       </c>
       <c r="D10">
-        <v>43.50050490431895</v>
+        <v>43.46078729757968</v>
       </c>
       <c r="E10">
         <v>3.33148</v>
@@ -2181,37 +2181,37 @@
         <v>1.19</v>
       </c>
       <c r="M10">
-        <v>0.08086829600000001</v>
+        <v>0.057712176</v>
       </c>
       <c r="N10">
-        <v>1.109131704</v>
+        <v>1.132287824</v>
       </c>
       <c r="O10">
-        <v>0.24400897488</v>
+        <v>0.24910332128</v>
       </c>
       <c r="P10">
-        <v>0.86512272912</v>
+        <v>0.88318450272</v>
       </c>
       <c r="Q10">
-        <v>1.05512272912</v>
+        <v>1.07318450272</v>
       </c>
       <c r="R10">
         <v>0.08695652173913043</v>
       </c>
       <c r="S10">
-        <v>0.1419948967943001</v>
+        <v>0.1418245936675574</v>
       </c>
       <c r="T10">
         <v>1.318686848595266</v>
       </c>
       <c r="U10">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V10">
         <v>0.22</v>
       </c>
       <c r="W10">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X10" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         </is>
       </c>
       <c r="Y10">
-        <v>14.71528471429644</v>
+        <v>20.61956561818082</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -2230,13 +2230,13 @@
         <v>0.09</v>
       </c>
       <c r="B11">
-        <v>0.1319231706786962</v>
+        <v>0.1312498309771016</v>
       </c>
       <c r="C11">
-        <v>41.3208946955687</v>
+        <v>41.31841334675406</v>
       </c>
       <c r="D11">
-        <v>43.5486846955687</v>
+        <v>43.54620334675406</v>
       </c>
       <c r="E11">
         <v>3.77679</v>
@@ -2263,45 +2263,45 @@
         <v>1.19</v>
       </c>
       <c r="M11">
-        <v>0.09738929700000001</v>
+        <v>0.06492619799999999</v>
       </c>
       <c r="N11">
-        <v>1.092610703</v>
+        <v>1.125073802</v>
       </c>
       <c r="O11">
-        <v>0.24037435466</v>
+        <v>0.24751623644</v>
       </c>
       <c r="P11">
-        <v>0.8522363483399999</v>
+        <v>0.87755756556</v>
       </c>
       <c r="Q11">
-        <v>1.04223634834</v>
+        <v>1.06755756556</v>
       </c>
       <c r="R11">
         <v>0.0989010989010989</v>
       </c>
       <c r="S11">
-        <v>0.143095945800765</v>
+        <v>0.1429808692056061</v>
       </c>
       <c r="T11">
         <v>1.330192376008557</v>
       </c>
       <c r="U11">
-        <v>0.0243</v>
+        <v>0.0162</v>
       </c>
       <c r="V11">
         <v>0.22</v>
       </c>
       <c r="W11">
-        <v>0.018954</v>
+        <v>0.012636</v>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>Aa2/AA</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y11">
-        <v>12.21900184781085</v>
+        <v>18.32850277171628</v>
       </c>
       <c r="Z11">
         <v>0</v>
@@ -2312,13 +2312,13 @@
         <v>0.1</v>
       </c>
       <c r="B12">
-        <v>0.1316947163066363</v>
+        <v>0.1310101557800503</v>
       </c>
       <c r="C12">
-        <v>40.96142888012876</v>
+        <v>40.95885580349093</v>
       </c>
       <c r="D12">
-        <v>43.63452888012876</v>
+        <v>43.63195580349093</v>
       </c>
       <c r="E12">
         <v>4.2221</v>
@@ -2345,45 +2345,45 @@
         <v>1.19</v>
       </c>
       <c r="M12">
-        <v>0.10821033</v>
+        <v>0.07214021999999999</v>
       </c>
       <c r="N12">
-        <v>1.08178967</v>
+        <v>1.11785978</v>
       </c>
       <c r="O12">
-        <v>0.2379937274</v>
+        <v>0.2459291516</v>
       </c>
       <c r="P12">
-        <v>0.8437959426</v>
+        <v>0.8719306283999999</v>
       </c>
       <c r="Q12">
-        <v>1.0337959426</v>
+        <v>1.0619306284</v>
       </c>
       <c r="R12">
         <v>0.1111111111111111</v>
       </c>
       <c r="S12">
-        <v>0.1442214625629292</v>
+        <v>0.1441628397556115</v>
       </c>
       <c r="T12">
         <v>1.341953581808809</v>
       </c>
       <c r="U12">
-        <v>0.0243</v>
+        <v>0.0162</v>
       </c>
       <c r="V12">
         <v>0.22</v>
       </c>
       <c r="W12">
-        <v>0.018954</v>
+        <v>0.012636</v>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>Aa2/AA</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y12">
-        <v>10.99710166302977</v>
+        <v>16.49565249454465</v>
       </c>
       <c r="Z12">
         <v>0</v>
@@ -2394,13 +2394,13 @@
         <v>0.11</v>
       </c>
       <c r="B13">
-        <v>0.1316550219345764</v>
+        <v>0.1307704805829991</v>
       </c>
       <c r="C13">
-        <v>40.53106898928333</v>
+        <v>40.59963665910245</v>
       </c>
       <c r="D13">
-        <v>43.64947898928332</v>
+        <v>43.71804665910245</v>
       </c>
       <c r="E13">
         <v>4.66741</v>
@@ -2427,45 +2427,45 @@
         <v>1.19</v>
       </c>
       <c r="M13">
-        <v>0.129807865</v>
+        <v>0.07935424199999999</v>
       </c>
       <c r="N13">
-        <v>1.060192135</v>
+        <v>1.110645758</v>
       </c>
       <c r="O13">
-        <v>0.2332422697</v>
+        <v>0.24434206676</v>
       </c>
       <c r="P13">
-        <v>0.8269498652999999</v>
+        <v>0.86630369124</v>
       </c>
       <c r="Q13">
-        <v>1.0169498653</v>
+        <v>1.05630369124</v>
       </c>
       <c r="R13">
         <v>0.1235955056179775</v>
       </c>
       <c r="S13">
-        <v>0.1453722718366027</v>
+        <v>0.145371371441572</v>
       </c>
       <c r="T13">
         <v>1.353979084368618</v>
       </c>
       <c r="U13">
-        <v>0.0265</v>
+        <v>0.0162</v>
       </c>
       <c r="V13">
         <v>0.22</v>
       </c>
       <c r="W13">
-        <v>0.02067</v>
+        <v>0.012636</v>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y13">
-        <v>9.167395211376443</v>
+        <v>14.99604772231332</v>
       </c>
       <c r="Z13">
         <v>0</v>
@@ -2476,13 +2476,13 @@
         <v>0.12</v>
       </c>
       <c r="B14">
-        <v>0.1314437275625164</v>
+        <v>0.1305308053859478</v>
       </c>
       <c r="C14">
-        <v>40.16551160058512</v>
+        <v>40.24075792064823</v>
       </c>
       <c r="D14">
-        <v>43.72923160058512</v>
+        <v>43.80447792064822</v>
       </c>
       <c r="E14">
         <v>5.112719999999999</v>
@@ -2509,45 +2509,45 @@
         <v>1.19</v>
       </c>
       <c r="M14">
-        <v>0.14160858</v>
+        <v>0.08656826399999998</v>
       </c>
       <c r="N14">
-        <v>1.04839142</v>
+        <v>1.103431736</v>
       </c>
       <c r="O14">
-        <v>0.2306461124</v>
+        <v>0.24275498192</v>
       </c>
       <c r="P14">
-        <v>0.8177453076</v>
+        <v>0.8606767540799999</v>
       </c>
       <c r="Q14">
-        <v>1.0077453076</v>
+        <v>1.05067675408</v>
       </c>
       <c r="R14">
         <v>0.1363636363636364</v>
       </c>
       <c r="S14">
-        <v>0.146549235866496</v>
+        <v>0.1466073697567589</v>
       </c>
       <c r="T14">
         <v>1.366277893804786</v>
       </c>
       <c r="U14">
-        <v>0.0265</v>
+        <v>0.0162</v>
       </c>
       <c r="V14">
         <v>0.22</v>
       </c>
       <c r="W14">
-        <v>0.02067</v>
+        <v>0.012636</v>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y14">
-        <v>8.403445610428408</v>
+        <v>13.74637707878721</v>
       </c>
       <c r="Z14">
         <v>0</v>
@@ -2558,13 +2558,13 @@
         <v>0.13</v>
       </c>
       <c r="B15">
-        <v>0.1313439731904565</v>
+        <v>0.1304533701888966</v>
       </c>
       <c r="C15">
-        <v>39.75795503694818</v>
+        <v>39.82344556012143</v>
       </c>
       <c r="D15">
-        <v>43.76698503694817</v>
+        <v>43.83247556012142</v>
       </c>
       <c r="E15">
         <v>5.55803</v>
@@ -2591,45 +2591,45 @@
         <v>1.19</v>
       </c>
       <c r="M15">
-        <v>0.159777228</v>
+        <v>0.103044734</v>
       </c>
       <c r="N15">
-        <v>1.030222772</v>
+        <v>1.086955266</v>
       </c>
       <c r="O15">
-        <v>0.22664900984</v>
+        <v>0.23913015852</v>
       </c>
       <c r="P15">
-        <v>0.8035737621599999</v>
+        <v>0.84782510748</v>
       </c>
       <c r="Q15">
-        <v>0.9935737621599998</v>
+        <v>1.03782510748</v>
       </c>
       <c r="R15">
         <v>0.1494252873563219</v>
       </c>
       <c r="S15">
-        <v>0.1477532565407546</v>
+        <v>0.1478717818263179</v>
       </c>
       <c r="T15">
         <v>1.37885943449236</v>
       </c>
       <c r="U15">
-        <v>0.0276</v>
+        <v>0.0178</v>
       </c>
       <c r="V15">
         <v>0.22</v>
       </c>
       <c r="W15">
-        <v>0.021528</v>
+        <v>0.013884</v>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y15">
-        <v>7.447869855396415</v>
+        <v>11.54838247241242</v>
       </c>
       <c r="Z15">
         <v>0</v>
@@ -2640,13 +2640,13 @@
         <v>0.14</v>
       </c>
       <c r="B16">
-        <v>0.1311412588183966</v>
+        <v>0.1302261749918454</v>
       </c>
       <c r="C16">
-        <v>39.38956631368479</v>
+        <v>39.46048768878833</v>
       </c>
       <c r="D16">
-        <v>43.84390631368479</v>
+        <v>43.91482768878834</v>
       </c>
       <c r="E16">
         <v>6.003340000000001</v>
@@ -2673,45 +2673,45 @@
         <v>1.19</v>
       </c>
       <c r="M16">
-        <v>0.172067784</v>
+        <v>0.110971252</v>
       </c>
       <c r="N16">
-        <v>1.017932216</v>
+        <v>1.079028748</v>
       </c>
       <c r="O16">
-        <v>0.22394508752</v>
+        <v>0.23738632456</v>
       </c>
       <c r="P16">
-        <v>0.79398712848</v>
+        <v>0.8416424234400001</v>
       </c>
       <c r="Q16">
-        <v>0.9839871284799999</v>
+        <v>1.03164242344</v>
       </c>
       <c r="R16">
         <v>0.1627906976744186</v>
       </c>
       <c r="S16">
-        <v>0.14898527769581</v>
+        <v>0.1491655988277272</v>
       </c>
       <c r="T16">
         <v>1.391733569149413</v>
       </c>
       <c r="U16">
-        <v>0.0276</v>
+        <v>0.0178</v>
       </c>
       <c r="V16">
         <v>0.22</v>
       </c>
       <c r="W16">
-        <v>0.021528</v>
+        <v>0.013884</v>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y16">
-        <v>6.915879151439528</v>
+        <v>10.72349801009725</v>
       </c>
       <c r="Z16">
         <v>0</v>
@@ -2722,13 +2722,13 @@
         <v>0.15</v>
       </c>
       <c r="B17">
-        <v>0.1309385444463367</v>
+        <v>0.1302563797947942</v>
       </c>
       <c r="C17">
-        <v>39.02144844755942</v>
+        <v>39.00421143203428</v>
       </c>
       <c r="D17">
-        <v>43.92109844755942</v>
+        <v>43.90386143203428</v>
       </c>
       <c r="E17">
         <v>6.44865</v>
@@ -2755,45 +2755,45 @@
         <v>1.19</v>
       </c>
       <c r="M17">
-        <v>0.18435834</v>
+        <v>0.133593</v>
       </c>
       <c r="N17">
-        <v>1.00564166</v>
+        <v>1.056407</v>
       </c>
       <c r="O17">
-        <v>0.2212411652</v>
+        <v>0.23240954</v>
       </c>
       <c r="P17">
-        <v>0.7844004948</v>
+        <v>0.8239974600000001</v>
       </c>
       <c r="Q17">
-        <v>0.9744004947999999</v>
+        <v>1.01399746</v>
       </c>
       <c r="R17">
         <v>0.1764705882352941</v>
       </c>
       <c r="S17">
-        <v>0.1502462875839255</v>
+        <v>0.1504898585821108</v>
       </c>
       <c r="T17">
         <v>1.404910624621925</v>
       </c>
       <c r="U17">
-        <v>0.0276</v>
+        <v>0.02</v>
       </c>
       <c r="V17">
         <v>0.22</v>
       </c>
       <c r="W17">
-        <v>0.021528</v>
+        <v>0.0156</v>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y17">
-        <v>6.45482054134356</v>
+        <v>8.907652347054114</v>
       </c>
       <c r="Z17">
         <v>0</v>
@@ -2804,13 +2804,13 @@
         <v>0.16</v>
       </c>
       <c r="B18">
-        <v>0.1309230300742767</v>
+        <v>0.1300463445977429</v>
       </c>
       <c r="C18">
-        <v>38.58205740454098</v>
+        <v>38.63527108295755</v>
       </c>
       <c r="D18">
-        <v>43.92701740454098</v>
+        <v>43.98023108295755</v>
       </c>
       <c r="E18">
         <v>6.89396</v>
@@ -2837,45 +2837,45 @@
         <v>1.19</v>
       </c>
       <c r="M18">
-        <v>0.207336336</v>
+        <v>0.1424992</v>
       </c>
       <c r="N18">
-        <v>0.9826636639999999</v>
+        <v>1.0475008</v>
       </c>
       <c r="O18">
-        <v>0.21618600608</v>
+        <v>0.230450176</v>
       </c>
       <c r="P18">
-        <v>0.7664776579199999</v>
+        <v>0.8170506239999999</v>
       </c>
       <c r="Q18">
-        <v>0.9564776579199998</v>
+        <v>1.007050624</v>
       </c>
       <c r="R18">
         <v>0.1904761904761905</v>
       </c>
       <c r="S18">
-        <v>0.1515373215169961</v>
+        <v>0.1518456483306463</v>
       </c>
       <c r="T18">
         <v>1.41840141951045</v>
       </c>
       <c r="U18">
-        <v>0.0291</v>
+        <v>0.02</v>
       </c>
       <c r="V18">
         <v>0.22</v>
       </c>
       <c r="W18">
-        <v>0.022698</v>
+        <v>0.0156</v>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y18">
-        <v>5.7394667184627</v>
+        <v>8.350924075363231</v>
       </c>
       <c r="Z18">
         <v>0</v>
@@ -2886,13 +2886,13 @@
         <v>0.17</v>
       </c>
       <c r="B19">
-        <v>0.1307320157022169</v>
+        <v>0.1299821694006917</v>
       </c>
       <c r="C19">
-        <v>38.20975309920949</v>
+        <v>38.21334846495541</v>
       </c>
       <c r="D19">
-        <v>44.00002309920949</v>
+        <v>44.00361846495541</v>
       </c>
       <c r="E19">
         <v>7.339270000000001</v>
@@ -2919,45 +2919,45 @@
         <v>1.19</v>
       </c>
       <c r="M19">
-        <v>0.220294857</v>
+        <v>0.159732697</v>
       </c>
       <c r="N19">
-        <v>0.9697051429999999</v>
+        <v>1.030267303</v>
       </c>
       <c r="O19">
-        <v>0.21333513146</v>
+        <v>0.22665880666</v>
       </c>
       <c r="P19">
-        <v>0.7563700115399999</v>
+        <v>0.80360849634</v>
       </c>
       <c r="Q19">
-        <v>0.9463700115399999</v>
+        <v>0.9936084963399999</v>
       </c>
       <c r="R19">
         <v>0.2048192771084338</v>
       </c>
       <c r="S19">
-        <v>0.1528594647014661</v>
+        <v>0.1532341077116767</v>
       </c>
       <c r="T19">
         <v>1.43221729379388</v>
       </c>
       <c r="U19">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V19">
         <v>0.22</v>
       </c>
       <c r="W19">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y19">
-        <v>5.401851029141365</v>
+        <v>7.449946206067002</v>
       </c>
       <c r="Z19">
         <v>0</v>
@@ -2968,13 +2968,13 @@
         <v>0.18</v>
       </c>
       <c r="B20">
-        <v>0.1305410013301569</v>
+        <v>0.1297807142036404</v>
       </c>
       <c r="C20">
-        <v>37.83769186543503</v>
+        <v>37.84161669436267</v>
       </c>
       <c r="D20">
-        <v>44.07327186543503</v>
+        <v>44.07719669436267</v>
       </c>
       <c r="E20">
         <v>7.78458</v>
@@ -3001,45 +3001,45 @@
         <v>1.19</v>
       </c>
       <c r="M20">
-        <v>0.233253378</v>
+        <v>0.169128738</v>
       </c>
       <c r="N20">
-        <v>0.9567466219999999</v>
+        <v>1.020871262</v>
       </c>
       <c r="O20">
-        <v>0.21048425684</v>
+        <v>0.22459167764</v>
       </c>
       <c r="P20">
-        <v>0.74626236516</v>
+        <v>0.79627958436</v>
       </c>
       <c r="Q20">
-        <v>0.9362623651599999</v>
+        <v>0.98627958436</v>
       </c>
       <c r="R20">
         <v>0.2195121951219512</v>
       </c>
       <c r="S20">
-        <v>0.1542138552806792</v>
+        <v>0.154656431955659</v>
       </c>
       <c r="T20">
         <v>1.446370140620807</v>
       </c>
       <c r="U20">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V20">
         <v>0.22</v>
       </c>
       <c r="W20">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y20">
-        <v>5.101748194189067</v>
+        <v>7.036060305729946</v>
       </c>
       <c r="Z20">
         <v>0</v>
@@ -3050,13 +3050,13 @@
         <v>0.19</v>
       </c>
       <c r="B21">
-        <v>0.130349986958097</v>
+        <v>0.1295792590065892</v>
       </c>
       <c r="C21">
-        <v>37.46587491919751</v>
+        <v>37.47013139546965</v>
       </c>
       <c r="D21">
-        <v>44.14676491919751</v>
+        <v>44.15102139546965</v>
       </c>
       <c r="E21">
         <v>8.229889999999999</v>
@@ -3083,45 +3083,45 @@
         <v>1.19</v>
       </c>
       <c r="M21">
-        <v>0.246211899</v>
+        <v>0.178524779</v>
       </c>
       <c r="N21">
-        <v>0.943788101</v>
+        <v>1.011475221</v>
       </c>
       <c r="O21">
-        <v>0.20763338222</v>
+        <v>0.22252454862</v>
       </c>
       <c r="P21">
-        <v>0.7361547187799999</v>
+        <v>0.7889506723799999</v>
       </c>
       <c r="Q21">
-        <v>0.9261547187799999</v>
+        <v>0.9789506723799999</v>
       </c>
       <c r="R21">
         <v>0.2345679012345679</v>
       </c>
       <c r="S21">
-        <v>0.1556016876025889</v>
+        <v>0.1561138753167768</v>
       </c>
       <c r="T21">
         <v>1.460872440455806</v>
       </c>
       <c r="U21">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V21">
         <v>0.22</v>
       </c>
       <c r="W21">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y21">
-        <v>4.833235131337012</v>
+        <v>6.665741342270476</v>
       </c>
       <c r="Z21">
         <v>0</v>
@@ -3132,13 +3132,13 @@
         <v>0.2</v>
       </c>
       <c r="B22">
-        <v>0.1301589725860371</v>
+        <v>0.1296118038095379</v>
       </c>
       <c r="C22">
-        <v>37.09430348460105</v>
+        <v>37.0128783753685</v>
       </c>
       <c r="D22">
-        <v>44.22050348460105</v>
+        <v>44.1390783753685</v>
       </c>
       <c r="E22">
         <v>8.6752</v>
@@ -3165,37 +3165,37 @@
         <v>1.19</v>
       </c>
       <c r="M22">
-        <v>0.25917042</v>
+        <v>0.20128012</v>
       </c>
       <c r="N22">
-        <v>0.9308295799999999</v>
+        <v>0.98871988</v>
       </c>
       <c r="O22">
-        <v>0.2047825076</v>
+        <v>0.2175183736</v>
       </c>
       <c r="P22">
-        <v>0.7260470723999999</v>
+        <v>0.7712015064</v>
       </c>
       <c r="Q22">
-        <v>0.9160470723999998</v>
+        <v>0.9612015063999999</v>
       </c>
       <c r="R22">
         <v>0.25</v>
       </c>
       <c r="S22">
-        <v>0.1570242157325464</v>
+        <v>0.1576077547619224</v>
       </c>
       <c r="T22">
         <v>1.475737297786681</v>
       </c>
       <c r="U22">
-        <v>0.0291</v>
+        <v>0.0226</v>
       </c>
       <c r="V22">
         <v>0.22</v>
       </c>
       <c r="W22">
-        <v>0.022698</v>
+        <v>0.017628</v>
       </c>
       <c r="X22" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         </is>
       </c>
       <c r="Y22">
-        <v>4.59157337477016</v>
+        <v>5.912158637425296</v>
       </c>
       <c r="Z22">
         <v>0</v>
@@ -3214,13 +3214,13 @@
         <v>0.21</v>
       </c>
       <c r="B23">
-        <v>0.1375191382139772</v>
+        <v>0.1294220486124867</v>
       </c>
       <c r="C23">
-        <v>33.97504890552096</v>
+        <v>36.6372942884005</v>
       </c>
       <c r="D23">
-        <v>41.54655890552095</v>
+        <v>44.20880428840049</v>
       </c>
       <c r="E23">
         <v>9.120509999999999</v>
@@ -3247,45 +3247,45 @@
         <v>1.19</v>
       </c>
       <c r="M23">
-        <v>0.7032335519999999</v>
+        <v>0.211344126</v>
       </c>
       <c r="N23">
-        <v>0.486766448</v>
+        <v>0.978655874</v>
       </c>
       <c r="O23">
-        <v>0.10708861856</v>
+        <v>0.21530429228</v>
       </c>
       <c r="P23">
-        <v>0.37967782944</v>
+        <v>0.7633515817199999</v>
       </c>
       <c r="Q23">
-        <v>0.56967782944</v>
+        <v>0.9533515817199999</v>
       </c>
       <c r="R23">
         <v>0.2658227848101266</v>
       </c>
       <c r="S23">
-        <v>0.1584827572328825</v>
+        <v>0.1591394539398566</v>
       </c>
       <c r="T23">
         <v>1.490978480619603</v>
       </c>
       <c r="U23">
-        <v>0.0752</v>
+        <v>0.0226</v>
       </c>
       <c r="V23">
         <v>0.22</v>
       </c>
       <c r="W23">
-        <v>0.05865600000000001</v>
+        <v>0.017628</v>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>B3/B-</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y23">
-        <v>1.692183196628821</v>
+        <v>5.630627273738377</v>
       </c>
       <c r="Z23">
         <v>0</v>
@@ -3296,13 +3296,13 @@
         <v>0.22</v>
       </c>
       <c r="B24">
-        <v>0.1376877038419173</v>
+        <v>0.1292322934154355</v>
       </c>
       <c r="C24">
-        <v>33.47228174150922</v>
+        <v>36.26193084016104</v>
       </c>
       <c r="D24">
-        <v>41.48910174150922</v>
+        <v>44.27875084016105</v>
       </c>
       <c r="E24">
         <v>9.56582</v>
@@ -3329,45 +3329,45 @@
         <v>1.19</v>
       </c>
       <c r="M24">
-        <v>0.736720864</v>
+        <v>0.221408132</v>
       </c>
       <c r="N24">
-        <v>0.4532791359999999</v>
+        <v>0.968591868</v>
       </c>
       <c r="O24">
-        <v>0.09972140991999998</v>
+        <v>0.21309021096</v>
       </c>
       <c r="P24">
-        <v>0.3535577260799999</v>
+        <v>0.7555016570399999</v>
       </c>
       <c r="Q24">
-        <v>0.5435577260799999</v>
+        <v>0.9455016570399999</v>
       </c>
       <c r="R24">
         <v>0.282051282051282</v>
       </c>
       <c r="S24">
-        <v>0.1599786972332272</v>
+        <v>0.1607104274556865</v>
       </c>
       <c r="T24">
         <v>1.506610463012344</v>
       </c>
       <c r="U24">
-        <v>0.0752</v>
+        <v>0.0226</v>
       </c>
       <c r="V24">
         <v>0.22</v>
       </c>
       <c r="W24">
-        <v>0.05865600000000001</v>
+        <v>0.017628</v>
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>B3/B-</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y24">
-        <v>1.615265778600238</v>
+        <v>5.374689670386632</v>
       </c>
       <c r="Z24">
         <v>0</v>
@@ -3378,13 +3378,13 @@
         <v>0.23</v>
       </c>
       <c r="B25">
-        <v>0.1378562694698574</v>
+        <v>0.1290425382183843</v>
       </c>
       <c r="C25">
-        <v>32.9696732797579</v>
+        <v>35.88678907958429</v>
       </c>
       <c r="D25">
-        <v>41.4318032797579</v>
+        <v>44.34891907958429</v>
       </c>
       <c r="E25">
         <v>10.01113</v>
@@ -3411,45 +3411,45 @@
         <v>1.19</v>
       </c>
       <c r="M25">
-        <v>0.770208176</v>
+        <v>0.231472138</v>
       </c>
       <c r="N25">
-        <v>0.4197918239999999</v>
+        <v>0.958527862</v>
       </c>
       <c r="O25">
-        <v>0.09235420127999998</v>
+        <v>0.21087612964</v>
       </c>
       <c r="P25">
-        <v>0.3274376227199999</v>
+        <v>0.7476517323599999</v>
       </c>
       <c r="Q25">
-        <v>0.5174376227199999</v>
+        <v>0.9376517323599999</v>
       </c>
       <c r="R25">
         <v>0.2987012987012987</v>
       </c>
       <c r="S25">
-        <v>0.1615134928179966</v>
+        <v>0.1623222054784211</v>
       </c>
       <c r="T25">
         <v>1.522648470921779</v>
       </c>
       <c r="U25">
-        <v>0.0752</v>
+        <v>0.0226</v>
       </c>
       <c r="V25">
         <v>0.22</v>
       </c>
       <c r="W25">
-        <v>0.05865600000000001</v>
+        <v>0.017628</v>
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>B3/B-</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y25">
-        <v>1.545036831704575</v>
+        <v>5.141007510804605</v>
       </c>
       <c r="Z25">
         <v>0</v>
@@ -3460,13 +3460,13 @@
         <v>0.24</v>
       </c>
       <c r="B26">
-        <v>0.1460127822612956</v>
+        <v>0.128852783021333</v>
       </c>
       <c r="C26">
-        <v>29.92908017809156</v>
+        <v>35.51187006226394</v>
       </c>
       <c r="D26">
-        <v>38.83652017809155</v>
+        <v>44.41931006226393</v>
       </c>
       <c r="E26">
         <v>10.45644</v>
@@ -3493,45 +3493,45 @@
         <v>1.19</v>
       </c>
       <c r="M26">
-        <v>1.23439932</v>
+        <v>0.241536144</v>
       </c>
       <c r="N26">
-        <v>-0.04439931999999991</v>
+        <v>0.948463856</v>
       </c>
       <c r="O26">
-        <v>-0.009767850399999981</v>
+        <v>0.20866204832</v>
       </c>
       <c r="P26">
-        <v>-0.03463146959999993</v>
+        <v>0.73980180768</v>
       </c>
       <c r="Q26">
-        <v>0.1553685304</v>
+        <v>0.92980180768</v>
       </c>
       <c r="R26">
         <v>0.3157894736842105</v>
       </c>
       <c r="S26">
-        <v>0.163383990539936</v>
+        <v>0.1639763987122803</v>
       </c>
       <c r="T26">
-        <v>1.542194433626353</v>
+        <v>1.539108531670936</v>
       </c>
       <c r="U26">
-        <v>0.1155</v>
+        <v>0.0226</v>
       </c>
       <c r="V26">
-        <v>0.2120869606441455</v>
+        <v>0.22</v>
       </c>
       <c r="W26">
-        <v>0.09100395604560119</v>
+        <v>0.017628</v>
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>Ca2/CC</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y26">
-        <v>0.9640316392915707</v>
+        <v>4.92679886452108</v>
       </c>
       <c r="Z26">
         <v>0</v>
@@ -3542,13 +3542,13 @@
         <v>0.25</v>
       </c>
       <c r="B27">
-        <v>0.1470097822612956</v>
+        <v>0.1286630278242817</v>
       </c>
       <c r="C27">
-        <v>29.18867014857968</v>
+        <v>35.13717485050601</v>
       </c>
       <c r="D27">
-        <v>38.54142014857968</v>
+        <v>44.48992485050601</v>
       </c>
       <c r="E27">
         <v>10.90175</v>
@@ -3575,45 +3575,45 @@
         <v>1.19</v>
       </c>
       <c r="M27">
-        <v>1.285832625</v>
+        <v>0.25160015</v>
       </c>
       <c r="N27">
-        <v>-0.09583262499999989</v>
+        <v>0.9383998499999999</v>
       </c>
       <c r="O27">
-        <v>-0.02108317749999998</v>
+        <v>0.206447967</v>
       </c>
       <c r="P27">
-        <v>-0.07474944749999991</v>
+        <v>0.7319518829999999</v>
       </c>
       <c r="Q27">
-        <v>0.1152505525</v>
+        <v>0.9219518829999999</v>
       </c>
       <c r="R27">
         <v>0.3333333333333333</v>
       </c>
       <c r="S27">
-        <v>0.1653517770804684</v>
+        <v>0.165674703765709</v>
       </c>
       <c r="T27">
-        <v>1.562757026074704</v>
+        <v>1.556007527373404</v>
       </c>
       <c r="U27">
-        <v>0.1155</v>
+        <v>0.0226</v>
       </c>
       <c r="V27">
-        <v>0.2036034822183797</v>
+        <v>0.22</v>
       </c>
       <c r="W27">
-        <v>0.09198379780377713</v>
+        <v>0.017628</v>
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>Ca2/CC</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y27">
-        <v>0.9254703737199078</v>
+        <v>4.729726909940236</v>
       </c>
       <c r="Z27">
         <v>0</v>
@@ -3624,13 +3624,13 @@
         <v>0.26</v>
       </c>
       <c r="B28">
-        <v>0.1480067822612956</v>
+        <v>0.1284732726272305</v>
       </c>
       <c r="C28">
-        <v>28.45271094563493</v>
+        <v>34.76270451338252</v>
       </c>
       <c r="D28">
-        <v>38.25077094563493</v>
+        <v>44.56076451338252</v>
       </c>
       <c r="E28">
         <v>11.34706</v>
@@ -3657,45 +3657,45 @@
         <v>1.19</v>
       </c>
       <c r="M28">
-        <v>1.33726593</v>
+        <v>0.261664156</v>
       </c>
       <c r="N28">
-        <v>-0.1472659300000001</v>
+        <v>0.928335844</v>
       </c>
       <c r="O28">
-        <v>-0.03239850460000002</v>
+        <v>0.20423388568</v>
       </c>
       <c r="P28">
-        <v>-0.1148674254000001</v>
+        <v>0.72410195832</v>
       </c>
       <c r="Q28">
-        <v>0.07513257459999986</v>
+        <v>0.91410195832</v>
       </c>
       <c r="R28">
         <v>0.3513513513513514</v>
       </c>
       <c r="S28">
-        <v>0.1673727470410153</v>
+        <v>0.1674189089557169</v>
       </c>
       <c r="T28">
-        <v>1.583875364264903</v>
+        <v>1.573363252689453</v>
       </c>
       <c r="U28">
-        <v>0.1155</v>
+        <v>0.0226</v>
       </c>
       <c r="V28">
-        <v>0.1957725790561343</v>
+        <v>0.22</v>
       </c>
       <c r="W28">
-        <v>0.09288826711901647</v>
+        <v>0.017628</v>
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>Ca2/CC</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y28">
-        <v>0.8898753593460651</v>
+        <v>4.547814336480997</v>
       </c>
       <c r="Z28">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0.27</v>
       </c>
       <c r="B29">
-        <v>0.1490037822612956</v>
+        <v>0.1477529967964377</v>
       </c>
       <c r="C29">
-        <v>27.72110262898511</v>
+        <v>28.11226159126786</v>
       </c>
       <c r="D29">
-        <v>37.96447262898511</v>
+        <v>38.35563159126786</v>
       </c>
       <c r="E29">
         <v>11.79237</v>
@@ -3739,37 +3739,37 @@
         <v>1.19</v>
       </c>
       <c r="M29">
-        <v>1.388699235</v>
+        <v>1.31054733</v>
       </c>
       <c r="N29">
-        <v>-0.1986992349999999</v>
+        <v>-0.12054733</v>
       </c>
       <c r="O29">
-        <v>-0.04371383169999997</v>
+        <v>-0.02652041259999999</v>
       </c>
       <c r="P29">
-        <v>-0.1549854032999999</v>
+        <v>-0.09402691739999997</v>
       </c>
       <c r="Q29">
-        <v>0.03501459670000007</v>
+        <v>0.09597308259999998</v>
       </c>
       <c r="R29">
         <v>0.3698630136986302</v>
       </c>
       <c r="S29">
-        <v>0.1694490860415772</v>
+        <v>0.1701397908842376</v>
       </c>
       <c r="T29">
-        <v>1.605572287063052</v>
+        <v>1.600437406372363</v>
       </c>
       <c r="U29">
-        <v>0.1155</v>
+        <v>0.109</v>
       </c>
       <c r="V29">
-        <v>0.1885217427947961</v>
+        <v>0.1997638650715499</v>
       </c>
       <c r="W29">
-        <v>0.09372573870720105</v>
+        <v>0.08722573870720106</v>
       </c>
       <c r="X29" t="inlineStr">
         <is>
@@ -3777,7 +3777,7 @@
         </is>
       </c>
       <c r="Y29">
-        <v>0.8569170127036183</v>
+        <v>0.9080175685070451</v>
       </c>
       <c r="Z29">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0.28</v>
       </c>
       <c r="B30">
-        <v>0.1500007822612956</v>
+        <v>0.1487499967964377</v>
       </c>
       <c r="C30">
-        <v>26.99374822824979</v>
+        <v>27.39272738492158</v>
       </c>
       <c r="D30">
-        <v>37.68242822824979</v>
+        <v>38.08140738492158</v>
       </c>
       <c r="E30">
         <v>12.23768</v>
@@ -3821,37 +3821,37 @@
         <v>1.19</v>
       </c>
       <c r="M30">
-        <v>1.44013254</v>
+        <v>1.35908612</v>
       </c>
       <c r="N30">
-        <v>-0.2501325400000001</v>
+        <v>-0.1690861200000002</v>
       </c>
       <c r="O30">
-        <v>-0.05502915880000001</v>
+        <v>-0.03719894640000005</v>
       </c>
       <c r="P30">
-        <v>-0.1951033812000001</v>
+        <v>-0.1318871736000002</v>
       </c>
       <c r="Q30">
-        <v>-0.005103381200000118</v>
+        <v>0.05811282639999976</v>
       </c>
       <c r="R30">
         <v>0.388888888888889</v>
       </c>
       <c r="S30">
-        <v>0.171583101125488</v>
+        <v>0.1723736768687409</v>
       </c>
       <c r="T30">
-        <v>1.62787190216115</v>
+        <v>1.62266570368309</v>
       </c>
       <c r="U30">
-        <v>0.1155</v>
+        <v>0.109</v>
       </c>
       <c r="V30">
-        <v>0.1817888234092676</v>
+        <v>0.1926294413189945</v>
       </c>
       <c r="W30">
-        <v>0.09450339089622958</v>
+        <v>0.08800339089622959</v>
       </c>
       <c r="X30" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         </is>
       </c>
       <c r="Y30">
-        <v>0.8263128336784891</v>
+        <v>0.8755883696317933</v>
       </c>
       <c r="Z30">
         <v>0</v>
@@ -3870,13 +3870,13 @@
         <v>0.29</v>
       </c>
       <c r="B31">
-        <v>0.1613251369250092</v>
+        <v>0.1497469967964377</v>
       </c>
       <c r="C31">
-        <v>23.61609821563375</v>
+        <v>26.67708648409217</v>
       </c>
       <c r="D31">
-        <v>34.75008821563375</v>
+        <v>37.81107648409217</v>
       </c>
       <c r="E31">
         <v>12.68299</v>
@@ -3903,45 +3903,45 @@
         <v>1.19</v>
       </c>
       <c r="M31">
-        <v>1.894482333</v>
+        <v>1.40762491</v>
       </c>
       <c r="N31">
-        <v>-0.7044823329999998</v>
+        <v>-0.2176249099999998</v>
       </c>
       <c r="O31">
-        <v>-0.15498611326</v>
+        <v>-0.04787748019999997</v>
       </c>
       <c r="P31">
-        <v>-0.5494962197399998</v>
+        <v>-0.1697474297999999</v>
       </c>
       <c r="Q31">
-        <v>-0.3594962197399999</v>
+        <v>0.02025257020000007</v>
       </c>
       <c r="R31">
         <v>0.4084507042253521</v>
       </c>
       <c r="S31">
-        <v>0.1755791372874154</v>
+        <v>0.1746704892190048</v>
       </c>
       <c r="T31">
-        <v>1.669628902381486</v>
+        <v>1.645520150213838</v>
       </c>
       <c r="U31">
-        <v>0.1467</v>
+        <v>0.109</v>
       </c>
       <c r="V31">
-        <v>0.13819078459572</v>
+        <v>0.1859870467907534</v>
       </c>
       <c r="W31">
-        <v>0.1264274118998079</v>
+        <v>0.08872741189980787</v>
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>C2/C</t>
+          <t>Ca2/CC</t>
         </is>
       </c>
       <c r="Y31">
-        <v>0.6281399299805452</v>
+        <v>0.8453956672306973</v>
       </c>
       <c r="Z31">
         <v>0</v>
@@ -3952,13 +3952,13 @@
         <v>0.3</v>
       </c>
       <c r="B32">
-        <v>0.1626341369250092</v>
+        <v>0.1507439967964377</v>
       </c>
       <c r="C32">
-        <v>22.86099741066926</v>
+        <v>25.96525656024632</v>
       </c>
       <c r="D32">
-        <v>34.44029741066926</v>
+        <v>37.54455656024631</v>
       </c>
       <c r="E32">
         <v>13.1283</v>
@@ -3985,45 +3985,45 @@
         <v>1.19</v>
       </c>
       <c r="M32">
-        <v>1.95980931</v>
+        <v>1.4561637</v>
       </c>
       <c r="N32">
-        <v>-0.7698093099999999</v>
+        <v>-0.2661636999999999</v>
       </c>
       <c r="O32">
-        <v>-0.1693580482</v>
+        <v>-0.05855601399999998</v>
       </c>
       <c r="P32">
-        <v>-0.6004512617999999</v>
+        <v>-0.2076076859999999</v>
       </c>
       <c r="Q32">
-        <v>-0.4104512617999999</v>
+        <v>-0.01760768599999996</v>
       </c>
       <c r="R32">
         <v>0.4285714285714286</v>
       </c>
       <c r="S32">
-        <v>0.1778616963915213</v>
+        <v>0.1770329247792763</v>
       </c>
       <c r="T32">
-        <v>1.693480743844078</v>
+        <v>1.669027580931179</v>
       </c>
       <c r="U32">
-        <v>0.1467</v>
+        <v>0.109</v>
       </c>
       <c r="V32">
-        <v>0.133584425109196</v>
+        <v>0.1797874785643949</v>
       </c>
       <c r="W32">
-        <v>0.127103164836481</v>
+        <v>0.08940316483648095</v>
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>C2/C</t>
+          <t>Ca2/CC</t>
         </is>
       </c>
       <c r="Y32">
-        <v>0.6072019323145271</v>
+        <v>0.8172158116563406</v>
       </c>
       <c r="Z32">
         <v>0</v>
@@ -4034,13 +4034,13 @@
         <v>0.31</v>
       </c>
       <c r="B33">
-        <v>0.1639431369250092</v>
+        <v>0.162902643334513</v>
       </c>
       <c r="C33">
-        <v>22.11137125909899</v>
+        <v>22.54805113751798</v>
       </c>
       <c r="D33">
-        <v>34.13598125909899</v>
+        <v>34.57266113751798</v>
       </c>
       <c r="E33">
         <v>13.57361</v>
@@ -4067,37 +4067,37 @@
         <v>1.19</v>
       </c>
       <c r="M33">
-        <v>2.025136287</v>
+        <v>1.935406322</v>
       </c>
       <c r="N33">
-        <v>-0.8351362870000001</v>
+        <v>-0.745406322</v>
       </c>
       <c r="O33">
-        <v>-0.18372998314</v>
+        <v>-0.16398939084</v>
       </c>
       <c r="P33">
-        <v>-0.6514063038600001</v>
+        <v>-0.58141693116</v>
       </c>
       <c r="Q33">
-        <v>-0.4614063038600001</v>
+        <v>-0.3914169311600001</v>
       </c>
       <c r="R33">
         <v>0.4492753623188406</v>
       </c>
       <c r="S33">
-        <v>0.1802104166290796</v>
+        <v>0.1816227447587953</v>
       </c>
       <c r="T33">
-        <v>1.718023943030224</v>
+        <v>1.71469861509103</v>
       </c>
       <c r="U33">
-        <v>0.1467</v>
+        <v>0.1402</v>
       </c>
       <c r="V33">
-        <v>0.1292752501056735</v>
+        <v>0.1352687531419565</v>
       </c>
       <c r="W33">
-        <v>0.1277353208094977</v>
+        <v>0.1212353208094977</v>
       </c>
       <c r="X33" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         </is>
       </c>
       <c r="Y33">
-        <v>0.5876147732076068</v>
+        <v>0.614857968827075</v>
       </c>
       <c r="Z33">
         <v>0</v>
@@ -4116,13 +4116,13 @@
         <v>0.32</v>
       </c>
       <c r="B34">
-        <v>0.1652521369250092</v>
+        <v>0.164211643334513</v>
       </c>
       <c r="C34">
-        <v>21.3670759090897</v>
+        <v>21.8106029066215</v>
       </c>
       <c r="D34">
-        <v>33.83699590908969</v>
+        <v>34.2805229066215</v>
       </c>
       <c r="E34">
         <v>14.01892</v>
@@ -4149,37 +4149,37 @@
         <v>1.19</v>
       </c>
       <c r="M34">
-        <v>2.090463264</v>
+        <v>1.997838784</v>
       </c>
       <c r="N34">
-        <v>-0.9004632639999999</v>
+        <v>-0.8078387839999999</v>
       </c>
       <c r="O34">
-        <v>-0.19810191808</v>
+        <v>-0.17772453248</v>
       </c>
       <c r="P34">
-        <v>-0.7023613459199999</v>
+        <v>-0.6301142515199999</v>
       </c>
       <c r="Q34">
-        <v>-0.5123613459199999</v>
+        <v>-0.4401142515199999</v>
       </c>
       <c r="R34">
         <v>0.4705882352941177</v>
       </c>
       <c r="S34">
-        <v>0.1826282168736249</v>
+        <v>0.1841569027699541</v>
       </c>
       <c r="T34">
-        <v>1.743289001015963</v>
+        <v>1.73991477119531</v>
       </c>
       <c r="U34">
-        <v>0.1467</v>
+        <v>0.1402</v>
       </c>
       <c r="V34">
-        <v>0.1252353985398712</v>
+        <v>0.1310416046062704</v>
       </c>
       <c r="W34">
-        <v>0.1283279670342009</v>
+        <v>0.1218279670342009</v>
       </c>
       <c r="X34" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         </is>
       </c>
       <c r="Y34">
-        <v>0.5692518115448691</v>
+        <v>0.5956436573012289</v>
       </c>
       <c r="Z34">
         <v>0</v>
@@ -4198,13 +4198,13 @@
         <v>0.33</v>
       </c>
       <c r="B35">
-        <v>0.1665611369250092</v>
+        <v>0.165520643334513</v>
       </c>
       <c r="C35">
-        <v>20.627972504845</v>
+        <v>21.07805043003867</v>
       </c>
       <c r="D35">
-        <v>33.54320250484501</v>
+        <v>33.99328043003867</v>
       </c>
       <c r="E35">
         <v>14.46423</v>
@@ -4231,37 +4231,37 @@
         <v>1.19</v>
       </c>
       <c r="M35">
-        <v>2.155790241</v>
+        <v>2.060271246</v>
       </c>
       <c r="N35">
-        <v>-0.9657902410000001</v>
+        <v>-0.8702712460000002</v>
       </c>
       <c r="O35">
-        <v>-0.21247385302</v>
+        <v>-0.19145967412</v>
       </c>
       <c r="P35">
-        <v>-0.7533163879800001</v>
+        <v>-0.6788115718800001</v>
       </c>
       <c r="Q35">
-        <v>-0.5633163879800002</v>
+        <v>-0.4888115718800001</v>
       </c>
       <c r="R35">
         <v>0.4925373134328359</v>
       </c>
       <c r="S35">
-        <v>0.1851181902597984</v>
+        <v>0.1867667072889086</v>
       </c>
       <c r="T35">
-        <v>1.769308239837097</v>
+        <v>1.76588364837733</v>
       </c>
       <c r="U35">
-        <v>0.1467</v>
+        <v>0.1402</v>
       </c>
       <c r="V35">
-        <v>0.1214403864629054</v>
+        <v>0.1270706468909288</v>
       </c>
       <c r="W35">
-        <v>0.1288846953058918</v>
+        <v>0.1223846953058918</v>
       </c>
       <c r="X35" t="inlineStr">
         <is>
@@ -4269,7 +4269,7 @@
         </is>
       </c>
       <c r="Y35">
-        <v>0.5520017566495701</v>
+        <v>0.577593849504222</v>
       </c>
       <c r="Z35">
         <v>0</v>
@@ -4280,13 +4280,13 @@
         <v>0.34</v>
       </c>
       <c r="B36">
-        <v>0.1678701369250092</v>
+        <v>0.1668296433345131</v>
       </c>
       <c r="C36">
-        <v>19.89392697157923</v>
+        <v>20.35027166326547</v>
       </c>
       <c r="D36">
-        <v>33.25446697157923</v>
+        <v>33.71081166326547</v>
       </c>
       <c r="E36">
         <v>14.90954</v>
@@ -4313,37 +4313,37 @@
         <v>1.19</v>
       </c>
       <c r="M36">
-        <v>2.221117218</v>
+        <v>2.122703708</v>
       </c>
       <c r="N36">
-        <v>-1.031117218</v>
+        <v>-0.932703708</v>
       </c>
       <c r="O36">
-        <v>-0.2268457879600001</v>
+        <v>-0.20519481576</v>
       </c>
       <c r="P36">
-        <v>-0.8042714300400002</v>
+        <v>-0.72750889224</v>
       </c>
       <c r="Q36">
-        <v>-0.6142714300400003</v>
+        <v>-0.5375088922400001</v>
       </c>
       <c r="R36">
         <v>0.5151515151515152</v>
       </c>
       <c r="S36">
-        <v>0.1876836173849469</v>
+        <v>0.189455596793286</v>
       </c>
       <c r="T36">
-        <v>1.796115940440689</v>
+        <v>1.792639461231532</v>
       </c>
       <c r="U36">
-        <v>0.1467</v>
+        <v>0.1402</v>
       </c>
       <c r="V36">
-        <v>0.117868610390467</v>
+        <v>0.1233332749235486</v>
       </c>
       <c r="W36">
-        <v>0.1294086748557185</v>
+        <v>0.1229086748557185</v>
       </c>
       <c r="X36" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         </is>
       </c>
       <c r="Y36">
-        <v>0.5357664108657592</v>
+        <v>0.560605795107039</v>
       </c>
       <c r="Z36">
         <v>0</v>
@@ -4362,13 +4362,13 @@
         <v>0.35</v>
       </c>
       <c r="B37">
-        <v>0.1691791369250092</v>
+        <v>0.168138643334513</v>
       </c>
       <c r="C37">
-        <v>19.16480981150191</v>
+        <v>19.62714858490594</v>
       </c>
       <c r="D37">
-        <v>32.97065981150191</v>
+        <v>33.43299858490594</v>
       </c>
       <c r="E37">
         <v>15.35485</v>
@@ -4395,37 +4395,37 @@
         <v>1.19</v>
       </c>
       <c r="M37">
-        <v>2.286444195</v>
+        <v>2.18513617</v>
       </c>
       <c r="N37">
-        <v>-1.096444195</v>
+        <v>-0.9951361699999999</v>
       </c>
       <c r="O37">
-        <v>-0.2412177229</v>
+        <v>-0.2189299574</v>
       </c>
       <c r="P37">
-        <v>-0.8552264721000001</v>
+        <v>-0.7762062125999999</v>
       </c>
       <c r="Q37">
-        <v>-0.6652264721000002</v>
+        <v>-0.5862062125999999</v>
       </c>
       <c r="R37">
         <v>0.5384615384615385</v>
       </c>
       <c r="S37">
-        <v>0.1903279807293307</v>
+        <v>0.1922272213593366</v>
       </c>
       <c r="T37">
-        <v>1.823748493370546</v>
+        <v>1.820218529865863</v>
       </c>
       <c r="U37">
-        <v>0.1467</v>
+        <v>0.1402</v>
       </c>
       <c r="V37">
-        <v>0.1145009358078822</v>
+        <v>0.1198094670685901</v>
       </c>
       <c r="W37">
-        <v>0.1299027127169837</v>
+        <v>0.1234027127169837</v>
       </c>
       <c r="X37" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         </is>
       </c>
       <c r="Y37">
-        <v>0.5204587991267374</v>
+        <v>0.5445884866754094</v>
       </c>
       <c r="Z37">
         <v>0</v>
@@ -4444,13 +4444,13 @@
         <v>0.36</v>
       </c>
       <c r="B38">
-        <v>0.1704881369250092</v>
+        <v>0.169447643334513</v>
       </c>
       <c r="C38">
-        <v>18.44049591016087</v>
+        <v>18.90856703225356</v>
       </c>
       <c r="D38">
-        <v>32.69165591016087</v>
+        <v>33.15972703225356</v>
       </c>
       <c r="E38">
         <v>15.80016</v>
@@ -4477,37 +4477,37 @@
         <v>1.19</v>
       </c>
       <c r="M38">
-        <v>2.351771172</v>
+        <v>2.247568632</v>
       </c>
       <c r="N38">
-        <v>-1.161771172</v>
+        <v>-1.057568632</v>
       </c>
       <c r="O38">
-        <v>-0.25558965784</v>
+        <v>-0.2326650990399999</v>
       </c>
       <c r="P38">
-        <v>-0.9061815141599999</v>
+        <v>-0.8249035329599999</v>
       </c>
       <c r="Q38">
-        <v>-0.71618151416</v>
+        <v>-0.6349035329599999</v>
       </c>
       <c r="R38">
         <v>0.5625</v>
       </c>
       <c r="S38">
-        <v>0.1930549804282264</v>
+        <v>0.1950854591930762</v>
       </c>
       <c r="T38">
-        <v>1.852244563579461</v>
+        <v>1.848659444395017</v>
       </c>
       <c r="U38">
-        <v>0.1467</v>
+        <v>0.1402</v>
       </c>
       <c r="V38">
-        <v>0.1113203542576633</v>
+        <v>0.1164814263166848</v>
       </c>
       <c r="W38">
-        <v>0.1303693040304008</v>
+        <v>0.1238693040304008</v>
       </c>
       <c r="X38" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         </is>
       </c>
       <c r="Y38">
-        <v>0.5060016102621059</v>
+        <v>0.5294610287122036</v>
       </c>
       <c r="Z38">
         <v>0</v>
@@ -4526,13 +4526,13 @@
         <v>0.37</v>
       </c>
       <c r="B39">
-        <v>0.1889753080925324</v>
+        <v>0.170756643334513</v>
       </c>
       <c r="C39">
-        <v>14.50521817042986</v>
+        <v>18.1944165448709</v>
       </c>
       <c r="D39">
-        <v>29.20168817042985</v>
+        <v>32.8908865448709</v>
       </c>
       <c r="E39">
         <v>16.24547</v>
@@ -4559,45 +4559,45 @@
         <v>1.19</v>
       </c>
       <c r="M39">
-        <v>3.133824594</v>
+        <v>2.310001094</v>
       </c>
       <c r="N39">
-        <v>-1.943824594</v>
+        <v>-1.120001094</v>
       </c>
       <c r="O39">
-        <v>-0.42764141068</v>
+        <v>-0.2464002406799999</v>
       </c>
       <c r="P39">
-        <v>-1.51618318332</v>
+        <v>-0.8736008533199997</v>
       </c>
       <c r="Q39">
-        <v>-1.32618318332</v>
+        <v>-0.6836008533199998</v>
       </c>
       <c r="R39">
         <v>0.5873015873015873</v>
       </c>
       <c r="S39">
-        <v>0.1975878708596637</v>
+        <v>0.1980344347358234</v>
       </c>
       <c r="T39">
-        <v>1.899611478961174</v>
+        <v>1.8780032450997</v>
       </c>
       <c r="U39">
-        <v>0.1902</v>
+        <v>0.1402</v>
       </c>
       <c r="V39">
-        <v>0.08354009362912032</v>
+        <v>0.1133332796594771</v>
       </c>
       <c r="W39">
-        <v>0.1743106741917413</v>
+        <v>0.1243106741917413</v>
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>D2/D</t>
+          <t>C2/C</t>
         </is>
       </c>
       <c r="Y39">
-        <v>0.3797276983141833</v>
+        <v>0.5151512711794414</v>
       </c>
       <c r="Z39">
         <v>0</v>
@@ -4608,13 +4608,13 @@
         <v>0.38</v>
       </c>
       <c r="B40">
-        <v>0.1907193080925325</v>
+        <v>0.172065643334513</v>
       </c>
       <c r="C40">
-        <v>13.76875824121627</v>
+        <v>17.48459021571689</v>
       </c>
       <c r="D40">
-        <v>28.91053824121627</v>
+        <v>32.62637021571688</v>
       </c>
       <c r="E40">
         <v>16.69078</v>
@@ -4641,45 +4641,45 @@
         <v>1.19</v>
       </c>
       <c r="M40">
-        <v>3.218522556</v>
+        <v>2.372433555999999</v>
       </c>
       <c r="N40">
-        <v>-2.028522556</v>
+        <v>-1.182433555999999</v>
       </c>
       <c r="O40">
-        <v>-0.44627496232</v>
+        <v>-0.2601353823199999</v>
       </c>
       <c r="P40">
-        <v>-1.58224759368</v>
+        <v>-0.9222981736799996</v>
       </c>
       <c r="Q40">
-        <v>-1.39224759368</v>
+        <v>-0.7322981736799996</v>
       </c>
       <c r="R40">
         <v>0.6129032258064516</v>
       </c>
       <c r="S40">
-        <v>0.2005199332928841</v>
+        <v>0.2010785385218851</v>
       </c>
       <c r="T40">
-        <v>1.930250373783128</v>
+        <v>1.908293620020663</v>
       </c>
       <c r="U40">
-        <v>0.1902</v>
+        <v>0.1402</v>
       </c>
       <c r="V40">
-        <v>0.08134167011256453</v>
+        <v>0.1103508249315961</v>
       </c>
       <c r="W40">
-        <v>0.1747288143445902</v>
+        <v>0.1247288143445902</v>
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>D2/D</t>
+          <t>C2/C</t>
         </is>
       </c>
       <c r="Y40">
-        <v>0.3697348641480206</v>
+        <v>0.5015946587799824</v>
       </c>
       <c r="Z40">
         <v>0</v>
@@ -4690,13 +4690,13 @@
         <v>0.39</v>
       </c>
       <c r="B41">
-        <v>0.1924633080925325</v>
+        <v>0.1915719966454234</v>
       </c>
       <c r="C41">
-        <v>13.03804670969806</v>
+        <v>13.54767691738698</v>
       </c>
       <c r="D41">
-        <v>28.62513670969806</v>
+        <v>29.13476691738698</v>
       </c>
       <c r="E41">
         <v>17.13609</v>
@@ -4723,37 +4723,37 @@
         <v>1.19</v>
       </c>
       <c r="M41">
-        <v>3.303220518</v>
+        <v>3.190334433</v>
       </c>
       <c r="N41">
-        <v>-2.113220518</v>
+        <v>-2.000334433</v>
       </c>
       <c r="O41">
-        <v>-0.46490851396</v>
+        <v>-0.4400735752600001</v>
       </c>
       <c r="P41">
-        <v>-1.64831200404</v>
+        <v>-1.56026085774</v>
       </c>
       <c r="Q41">
-        <v>-1.45831200404</v>
+        <v>-1.37026085774</v>
       </c>
       <c r="R41">
         <v>0.639344262295082</v>
       </c>
       <c r="S41">
-        <v>0.2035481289206363</v>
+        <v>0.2062427003188183</v>
       </c>
       <c r="T41">
-        <v>1.961893822533672</v>
+        <v>1.959679646245476</v>
       </c>
       <c r="U41">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V41">
-        <v>0.07925598626352441</v>
+        <v>0.08206036247861917</v>
       </c>
       <c r="W41">
-        <v>0.1751255114126777</v>
+        <v>0.1686255114126777</v>
       </c>
       <c r="X41" t="inlineStr">
         <is>
@@ -4761,7 +4761,7 @@
         </is>
       </c>
       <c r="Y41">
-        <v>0.36025448301602</v>
+        <v>0.3730016476300871</v>
       </c>
       <c r="Z41">
         <v>0</v>
@@ -4772,13 +4772,13 @@
         <v>0.4</v>
       </c>
       <c r="B42">
-        <v>0.1942073080925324</v>
+        <v>0.1933159966454234</v>
       </c>
       <c r="C42">
-        <v>12.31291499748535</v>
+        <v>12.82624400182421</v>
       </c>
       <c r="D42">
-        <v>28.34531499748535</v>
+        <v>28.85864400182421</v>
       </c>
       <c r="E42">
         <v>17.5814</v>
@@ -4805,37 +4805,37 @@
         <v>1.19</v>
       </c>
       <c r="M42">
-        <v>3.38791848</v>
+        <v>3.27213788</v>
       </c>
       <c r="N42">
-        <v>-2.19791848</v>
+        <v>-2.08213788</v>
       </c>
       <c r="O42">
-        <v>-0.4835420656000001</v>
+        <v>-0.4580703336000001</v>
       </c>
       <c r="P42">
-        <v>-1.7143764144</v>
+        <v>-1.6240675464</v>
       </c>
       <c r="Q42">
-        <v>-1.5243764144</v>
+        <v>-1.4340675464</v>
       </c>
       <c r="R42">
         <v>0.6666666666666667</v>
       </c>
       <c r="S42">
-        <v>0.2066772644026469</v>
+        <v>0.2095250786574652</v>
       </c>
       <c r="T42">
-        <v>1.994592052909233</v>
+        <v>1.992340973682901</v>
       </c>
       <c r="U42">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V42">
-        <v>0.0772745866069363</v>
+        <v>0.08000885341665369</v>
       </c>
       <c r="W42">
-        <v>0.1755023736273607</v>
+        <v>0.1690023736273607</v>
       </c>
       <c r="X42" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="Y42">
-        <v>0.3512481209406195</v>
+        <v>0.363676606439335</v>
       </c>
       <c r="Z42">
         <v>0</v>
@@ -4854,13 +4854,13 @@
         <v>0.41</v>
       </c>
       <c r="B43">
-        <v>0.1959513080925325</v>
+        <v>0.1950599966454235</v>
       </c>
       <c r="C43">
-        <v>11.59320105405007</v>
+        <v>12.1099958232709</v>
       </c>
       <c r="D43">
-        <v>28.07091105405007</v>
+        <v>28.58770582327089</v>
       </c>
       <c r="E43">
         <v>18.02671</v>
@@ -4887,37 +4887,37 @@
         <v>1.19</v>
       </c>
       <c r="M43">
-        <v>3.472616442</v>
+        <v>3.353941327</v>
       </c>
       <c r="N43">
-        <v>-2.282616442</v>
+        <v>-2.163941327</v>
       </c>
       <c r="O43">
-        <v>-0.50217561724</v>
+        <v>-0.47606709194</v>
       </c>
       <c r="P43">
-        <v>-1.78044082476</v>
+        <v>-1.68787423506</v>
       </c>
       <c r="Q43">
-        <v>-1.59044082476</v>
+        <v>-1.49787423506</v>
       </c>
       <c r="R43">
         <v>0.6949152542372882</v>
       </c>
       <c r="S43">
-        <v>0.2099124722738782</v>
+        <v>0.2129187240584392</v>
       </c>
       <c r="T43">
-        <v>2.028398697873796</v>
+        <v>2.026109464762272</v>
       </c>
       <c r="U43">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V43">
-        <v>0.07538984059213298</v>
+        <v>0.07805741796746703</v>
       </c>
       <c r="W43">
-        <v>0.1758608523193763</v>
+        <v>0.1693608523193763</v>
       </c>
       <c r="X43" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         </is>
       </c>
       <c r="Y43">
-        <v>0.3426810936006044</v>
+        <v>0.3548064453066683</v>
       </c>
       <c r="Z43">
         <v>0</v>
@@ -4936,13 +4936,13 @@
         <v>0.42</v>
       </c>
       <c r="B44">
-        <v>0.1976953080925324</v>
+        <v>0.1968039966454234</v>
       </c>
       <c r="C44">
-        <v>10.87874904378251</v>
+        <v>11.39878770990926</v>
       </c>
       <c r="D44">
-        <v>27.8017690437825</v>
+        <v>28.32180770990925</v>
       </c>
       <c r="E44">
         <v>18.47202</v>
@@ -4969,37 +4969,37 @@
         <v>1.19</v>
       </c>
       <c r="M44">
-        <v>3.557314404</v>
+        <v>3.435744774</v>
       </c>
       <c r="N44">
-        <v>-2.367314404</v>
+        <v>-2.245744774</v>
       </c>
       <c r="O44">
-        <v>-0.5208091688800001</v>
+        <v>-0.4940638502799999</v>
       </c>
       <c r="P44">
-        <v>-1.84650523512</v>
+        <v>-1.75168092372</v>
       </c>
       <c r="Q44">
-        <v>-1.65650523512</v>
+        <v>-1.56168092372</v>
       </c>
       <c r="R44">
         <v>0.7241379310344827</v>
       </c>
       <c r="S44">
-        <v>0.2132592390372209</v>
+        <v>0.2164293917146192</v>
       </c>
       <c r="T44">
-        <v>2.063371089216448</v>
+        <v>2.061042386568518</v>
       </c>
       <c r="U44">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V44">
-        <v>0.07359484438755838</v>
+        <v>0.07619890801586067</v>
       </c>
       <c r="W44">
-        <v>0.1762022605974864</v>
+        <v>0.1697022605974864</v>
       </c>
       <c r="X44" t="inlineStr">
         <is>
@@ -5007,7 +5007,7 @@
         </is>
       </c>
       <c r="Y44">
-        <v>0.3345220199434472</v>
+        <v>0.3463586727993667</v>
       </c>
       <c r="Z44">
         <v>0</v>
@@ -5018,13 +5018,13 @@
         <v>0.43</v>
       </c>
       <c r="B45">
-        <v>0.1994393080925324</v>
+        <v>0.1985479966454234</v>
       </c>
       <c r="C45">
-        <v>10.16940905087965</v>
+        <v>10.69248032276849</v>
       </c>
       <c r="D45">
-        <v>27.53773905087965</v>
+        <v>28.06081032276848</v>
       </c>
       <c r="E45">
         <v>18.91733</v>
@@ -5051,37 +5051,37 @@
         <v>1.19</v>
       </c>
       <c r="M45">
-        <v>3.642012366</v>
+        <v>3.517548221</v>
       </c>
       <c r="N45">
-        <v>-2.452012366</v>
+        <v>-2.327548221</v>
       </c>
       <c r="O45">
-        <v>-0.53944272052</v>
+        <v>-0.5120606086199999</v>
       </c>
       <c r="P45">
-        <v>-1.91256964548</v>
+        <v>-1.81548761238</v>
       </c>
       <c r="Q45">
-        <v>-1.72256964548</v>
+        <v>-1.62548761238</v>
       </c>
       <c r="R45">
         <v>0.7543859649122806</v>
       </c>
       <c r="S45">
-        <v>0.2167234362133125</v>
+        <v>0.2200632406920686</v>
       </c>
       <c r="T45">
-        <v>2.099570582009719</v>
+        <v>2.097201024929369</v>
       </c>
       <c r="U45">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V45">
-        <v>0.0718833363785454</v>
+        <v>0.07442684038758483</v>
       </c>
       <c r="W45">
-        <v>0.1765277894208007</v>
+        <v>0.1700277894208007</v>
       </c>
       <c r="X45" t="inlineStr">
         <is>
@@ -5089,7 +5089,7 @@
         </is>
       </c>
       <c r="Y45">
-        <v>0.3267424380842973</v>
+        <v>0.3383038199435675</v>
       </c>
       <c r="Z45">
         <v>0</v>
@@ -5100,13 +5100,13 @@
         <v>0.44</v>
       </c>
       <c r="B46">
-        <v>0.2011833080925324</v>
+        <v>0.2002919966454234</v>
       </c>
       <c r="C46">
-        <v>9.465036800891305</v>
+        <v>9.990939412246298</v>
       </c>
       <c r="D46">
-        <v>27.2786768008913</v>
+        <v>27.8045794122463</v>
       </c>
       <c r="E46">
         <v>19.36264</v>
@@ -5133,37 +5133,37 @@
         <v>1.19</v>
       </c>
       <c r="M46">
-        <v>3.726710328</v>
+        <v>3.599351668</v>
       </c>
       <c r="N46">
-        <v>-2.536710328</v>
+        <v>-2.409351668</v>
       </c>
       <c r="O46">
-        <v>-0.5580762721600001</v>
+        <v>-0.5300573669600001</v>
       </c>
       <c r="P46">
-        <v>-1.97863405584</v>
+        <v>-1.87929430104</v>
       </c>
       <c r="Q46">
-        <v>-1.78863405584</v>
+        <v>-1.68929430104</v>
       </c>
       <c r="R46">
         <v>0.7857142857142857</v>
       </c>
       <c r="S46">
-        <v>0.2203113547171217</v>
+        <v>0.2238268699901413</v>
       </c>
       <c r="T46">
-        <v>2.137062913831321</v>
+        <v>2.134651043231679</v>
       </c>
       <c r="U46">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V46">
-        <v>0.07024962418812392</v>
+        <v>0.072735321287867</v>
       </c>
       <c r="W46">
-        <v>0.1768385214794188</v>
+        <v>0.1703385214794188</v>
       </c>
       <c r="X46" t="inlineStr">
         <is>
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="Y46">
-        <v>0.3193164735823814</v>
+        <v>0.3306150967630318</v>
       </c>
       <c r="Z46">
         <v>0</v>
@@ -5182,13 +5182,13 @@
         <v>0.45</v>
       </c>
       <c r="B47">
-        <v>0.2029273080925325</v>
+        <v>0.2020359966454234</v>
       </c>
       <c r="C47">
-        <v>8.765493397837002</v>
+        <v>9.294035587849461</v>
       </c>
       <c r="D47">
-        <v>27.024443397837</v>
+        <v>27.55298558784946</v>
       </c>
       <c r="E47">
         <v>19.80795</v>
@@ -5215,37 +5215,37 @@
         <v>1.19</v>
       </c>
       <c r="M47">
-        <v>3.81140829</v>
+        <v>3.681155115</v>
       </c>
       <c r="N47">
-        <v>-2.62140829</v>
+        <v>-2.491155115</v>
       </c>
       <c r="O47">
-        <v>-0.5767098238</v>
+        <v>-0.5480541253000001</v>
       </c>
       <c r="P47">
-        <v>-2.0446984662</v>
+        <v>-1.9431009897</v>
       </c>
       <c r="Q47">
-        <v>-1.8546984662</v>
+        <v>-1.7531009897</v>
       </c>
       <c r="R47">
         <v>0.8181818181818181</v>
       </c>
       <c r="S47">
-        <v>0.2240297429847057</v>
+        <v>0.2277273585354166</v>
       </c>
       <c r="T47">
-        <v>2.175918603173709</v>
+        <v>2.173462880381346</v>
       </c>
       <c r="U47">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V47">
-        <v>0.06868852142838783</v>
+        <v>0.07111898081480328</v>
       </c>
       <c r="W47">
-        <v>0.1771354432243206</v>
+        <v>0.1706354432243206</v>
       </c>
       <c r="X47" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         </is>
       </c>
       <c r="Y47">
-        <v>0.3122205519472173</v>
+        <v>0.3232680946127422</v>
       </c>
       <c r="Z47">
         <v>0</v>
@@ -5264,13 +5264,13 @@
         <v>0.46</v>
       </c>
       <c r="B48">
-        <v>0.2046713080925325</v>
+        <v>0.2037799966454234</v>
       </c>
       <c r="C48">
-        <v>8.070645075887455</v>
+        <v>8.601644100323433</v>
       </c>
       <c r="D48">
-        <v>26.77490507588745</v>
+        <v>27.30590410032343</v>
       </c>
       <c r="E48">
         <v>20.25326</v>
@@ -5297,37 +5297,37 @@
         <v>1.19</v>
       </c>
       <c r="M48">
-        <v>3.896106252</v>
+        <v>3.762958562</v>
       </c>
       <c r="N48">
-        <v>-2.706106252</v>
+        <v>-2.572958562</v>
       </c>
       <c r="O48">
-        <v>-0.59534337544</v>
+        <v>-0.5660508836399999</v>
       </c>
       <c r="P48">
-        <v>-2.11076287656</v>
+        <v>-2.00690767836</v>
       </c>
       <c r="Q48">
-        <v>-1.92076287656</v>
+        <v>-1.81690767836</v>
       </c>
       <c r="R48">
         <v>0.8518518518518519</v>
       </c>
       <c r="S48">
-        <v>0.2278858493362744</v>
+        <v>0.2317723096194058</v>
       </c>
       <c r="T48">
-        <v>2.21621339212137</v>
+        <v>2.213712192981001</v>
       </c>
       <c r="U48">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V48">
-        <v>0.06719529270168374</v>
+        <v>0.06957291601448148</v>
       </c>
       <c r="W48">
-        <v>0.1774194553281397</v>
+        <v>0.1709194553281398</v>
       </c>
       <c r="X48" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         </is>
       </c>
       <c r="Y48">
-        <v>0.3054331486440169</v>
+        <v>0.3162405273385522</v>
       </c>
       <c r="Z48">
         <v>0</v>
@@ -5346,13 +5346,13 @@
         <v>0.47</v>
       </c>
       <c r="B49">
-        <v>0.2064153080925324</v>
+        <v>0.2055239966454234</v>
       </c>
       <c r="C49">
-        <v>7.380362964677577</v>
+        <v>7.913644635400253</v>
       </c>
       <c r="D49">
-        <v>26.52993296467758</v>
+        <v>27.06321463540025</v>
       </c>
       <c r="E49">
         <v>20.69857</v>
@@ -5379,37 +5379,37 @@
         <v>1.19</v>
       </c>
       <c r="M49">
-        <v>3.980804214</v>
+        <v>3.844762009000001</v>
       </c>
       <c r="N49">
-        <v>-2.790804214</v>
+        <v>-2.654762009000001</v>
       </c>
       <c r="O49">
-        <v>-0.6139769270800001</v>
+        <v>-0.5840476419800001</v>
       </c>
       <c r="P49">
-        <v>-2.17682728692</v>
+        <v>-2.07071436702</v>
       </c>
       <c r="Q49">
-        <v>-1.986827286920001</v>
+        <v>-1.88071436702</v>
       </c>
       <c r="R49">
         <v>0.8867924528301887</v>
       </c>
       <c r="S49">
-        <v>0.231887469135072</v>
+        <v>0.2359699003669417</v>
       </c>
       <c r="T49">
-        <v>2.258028739142528</v>
+        <v>2.255480347565548</v>
       </c>
       <c r="U49">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V49">
-        <v>0.06576560562292449</v>
+        <v>0.06809264120566272</v>
       </c>
       <c r="W49">
-        <v>0.1776913818105198</v>
+        <v>0.1711913818105198</v>
       </c>
       <c r="X49" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         </is>
       </c>
       <c r="Y49">
-        <v>0.2989345710132932</v>
+        <v>0.309512005480285</v>
       </c>
       <c r="Z49">
         <v>0</v>
@@ -5428,13 +5428,13 @@
         <v>0.48</v>
       </c>
       <c r="B50">
-        <v>0.2081593080925324</v>
+        <v>0.2072679966454234</v>
       </c>
       <c r="C50">
-        <v>6.694522867386215</v>
+        <v>7.229921118448452</v>
       </c>
       <c r="D50">
-        <v>26.28940286738621</v>
+        <v>26.82480111844845</v>
       </c>
       <c r="E50">
         <v>21.14388</v>
@@ -5461,37 +5461,37 @@
         <v>1.19</v>
       </c>
       <c r="M50">
-        <v>4.065502176</v>
+        <v>3.926565456</v>
       </c>
       <c r="N50">
-        <v>-2.875502176</v>
+        <v>-2.736565456</v>
       </c>
       <c r="O50">
-        <v>-0.63261047872</v>
+        <v>-0.60204440032</v>
       </c>
       <c r="P50">
-        <v>-2.24289169728</v>
+        <v>-2.13452105568</v>
       </c>
       <c r="Q50">
-        <v>-2.05289169728</v>
+        <v>-1.94452105568</v>
       </c>
       <c r="R50">
         <v>0.923076923076923</v>
       </c>
       <c r="S50">
-        <v>0.2360429973876695</v>
+        <v>0.2403289369124599</v>
       </c>
       <c r="T50">
-        <v>2.301452368741422</v>
+        <v>2.298854969634117</v>
       </c>
       <c r="U50">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V50">
-        <v>0.0643954888391136</v>
+        <v>0.06667404451387809</v>
       </c>
       <c r="W50">
-        <v>0.1779519780228006</v>
+        <v>0.1714519780228006</v>
       </c>
       <c r="X50" t="inlineStr">
         <is>
@@ -5499,7 +5499,7 @@
         </is>
       </c>
       <c r="Y50">
-        <v>0.2927067674505163</v>
+        <v>0.3030638386994459</v>
       </c>
       <c r="Z50">
         <v>0</v>
@@ -5510,13 +5510,13 @@
         <v>0.49</v>
       </c>
       <c r="B51">
-        <v>0.2099033080925324</v>
+        <v>0.2090119966454234</v>
       </c>
       <c r="C51">
-        <v>6.013005050779267</v>
+        <v>6.550361529358256</v>
       </c>
       <c r="D51">
-        <v>26.05319505077927</v>
+        <v>26.59055152935825</v>
       </c>
       <c r="E51">
         <v>21.58919</v>
@@ -5543,37 +5543,37 @@
         <v>1.19</v>
       </c>
       <c r="M51">
-        <v>4.150200138000001</v>
+        <v>4.008368903</v>
       </c>
       <c r="N51">
-        <v>-2.960200138000001</v>
+        <v>-2.818368903</v>
       </c>
       <c r="O51">
-        <v>-0.6512440303600001</v>
+        <v>-0.62004115866</v>
       </c>
       <c r="P51">
-        <v>-2.308956107640001</v>
+        <v>-2.19832774434</v>
       </c>
       <c r="Q51">
-        <v>-2.118956107640001</v>
+        <v>-2.00832774434</v>
       </c>
       <c r="R51">
         <v>0.9607843137254901</v>
       </c>
       <c r="S51">
-        <v>0.2403614875325258</v>
+        <v>0.2448589160676062</v>
       </c>
       <c r="T51">
-        <v>2.346578885775568</v>
+        <v>2.343930557274001</v>
       </c>
       <c r="U51">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V51">
-        <v>0.06308129518933574</v>
+        <v>0.06531334972788057</v>
       </c>
       <c r="W51">
-        <v>0.1782019376549883</v>
+        <v>0.1717019376549883</v>
       </c>
       <c r="X51" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         </is>
       </c>
       <c r="Y51">
-        <v>0.2867331599515262</v>
+        <v>0.2968788623994572</v>
       </c>
       <c r="Z51">
         <v>0</v>
@@ -5592,13 +5592,13 @@
         <v>0.5</v>
       </c>
       <c r="B52">
-        <v>0.2116473080925325</v>
+        <v>0.2107559966454234</v>
       </c>
       <c r="C52">
-        <v>5.335694046470891</v>
+        <v>5.874857727042095</v>
       </c>
       <c r="D52">
-        <v>25.82119404647089</v>
+        <v>26.36035772704209</v>
       </c>
       <c r="E52">
         <v>22.0345</v>
@@ -5625,37 +5625,37 @@
         <v>1.19</v>
       </c>
       <c r="M52">
-        <v>4.2348981</v>
+        <v>4.09017235</v>
       </c>
       <c r="N52">
-        <v>-3.0448981</v>
+        <v>-2.90017235</v>
       </c>
       <c r="O52">
-        <v>-0.6698775819999999</v>
+        <v>-0.6380379169999999</v>
       </c>
       <c r="P52">
-        <v>-2.375020518</v>
+        <v>-2.262134433</v>
       </c>
       <c r="Q52">
-        <v>-2.185020518</v>
+        <v>-2.072134433</v>
       </c>
       <c r="R52">
         <v>1</v>
       </c>
       <c r="S52">
-        <v>0.2448527172831763</v>
+        <v>0.2495700943889583</v>
       </c>
       <c r="T52">
-        <v>2.393510463491079</v>
+        <v>2.390809168419481</v>
       </c>
       <c r="U52">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V52">
-        <v>0.06181966928554904</v>
+        <v>0.06400708273332296</v>
       </c>
       <c r="W52">
-        <v>0.1784418989018886</v>
+        <v>0.1719418989018886</v>
       </c>
       <c r="X52" t="inlineStr">
         <is>
@@ -5663,7 +5663,7 @@
         </is>
       </c>
       <c r="Y52">
-        <v>0.2809984967524957</v>
+        <v>0.290941285151468</v>
       </c>
       <c r="Z52">
         <v>0</v>
@@ -5674,13 +5674,13 @@
         <v>0.51</v>
       </c>
       <c r="B53">
-        <v>0.2133913080925324</v>
+        <v>0.2124999966454234</v>
       </c>
       <c r="C53">
-        <v>4.662478462709306</v>
+        <v>5.203305282972664</v>
       </c>
       <c r="D53">
-        <v>25.5932884627093</v>
+        <v>26.13411528297266</v>
       </c>
       <c r="E53">
         <v>22.47981</v>
@@ -5707,37 +5707,37 @@
         <v>1.19</v>
       </c>
       <c r="M53">
-        <v>4.319596062</v>
+        <v>4.171975797</v>
       </c>
       <c r="N53">
-        <v>-3.129596062</v>
+        <v>-2.981975797</v>
       </c>
       <c r="O53">
-        <v>-0.6885111336399999</v>
+        <v>-0.65603467534</v>
       </c>
       <c r="P53">
-        <v>-2.44108492836</v>
+        <v>-2.32594112166</v>
       </c>
       <c r="Q53">
-        <v>-2.25108492836</v>
+        <v>-2.13594112166</v>
       </c>
       <c r="R53">
         <v>1.040816326530612</v>
       </c>
       <c r="S53">
-        <v>0.2495272625338534</v>
+        <v>0.2544735657030187</v>
       </c>
       <c r="T53">
-        <v>2.442357615807224</v>
+        <v>2.439601192264777</v>
       </c>
       <c r="U53">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V53">
-        <v>0.06060751890740102</v>
+        <v>0.06275204189541467</v>
       </c>
       <c r="W53">
-        <v>0.1786724499038123</v>
+        <v>0.1721724499038123</v>
       </c>
       <c r="X53" t="inlineStr">
         <is>
@@ -5745,7 +5745,7 @@
         </is>
       </c>
       <c r="Y53">
-        <v>0.2754887223063683</v>
+        <v>0.2852365540700667</v>
       </c>
       <c r="Z53">
         <v>0</v>
@@ -5756,13 +5756,13 @@
         <v>0.52</v>
       </c>
       <c r="B54">
-        <v>0.2151353080925324</v>
+        <v>0.2142439966454234</v>
       </c>
       <c r="C54">
-        <v>3.993250806042855</v>
+        <v>4.535603323220066</v>
       </c>
       <c r="D54">
-        <v>25.36937080604286</v>
+        <v>25.91172332322007</v>
       </c>
       <c r="E54">
         <v>22.92512</v>
@@ -5789,37 +5789,37 @@
         <v>1.19</v>
       </c>
       <c r="M54">
-        <v>4.404294024</v>
+        <v>4.253779244</v>
       </c>
       <c r="N54">
-        <v>-3.214294024</v>
+        <v>-3.063779244</v>
       </c>
       <c r="O54">
-        <v>-0.7071446852800001</v>
+        <v>-0.6740314336800001</v>
       </c>
       <c r="P54">
-        <v>-2.507149338720001</v>
+        <v>-2.38974781032</v>
       </c>
       <c r="Q54">
-        <v>-2.317149338720001</v>
+        <v>-2.19974781032</v>
       </c>
       <c r="R54">
         <v>1.083333333333333</v>
       </c>
       <c r="S54">
-        <v>0.2543965805033086</v>
+        <v>0.2595813483218315</v>
       </c>
       <c r="T54">
-        <v>2.493240066136541</v>
+        <v>2.490426217103626</v>
       </c>
       <c r="U54">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V54">
-        <v>0.0594419896976433</v>
+        <v>0.06154527185896437</v>
       </c>
       <c r="W54">
-        <v>0.1788941335595083</v>
+        <v>0.1723941335595083</v>
       </c>
       <c r="X54" t="inlineStr">
         <is>
@@ -5827,7 +5827,7 @@
         </is>
       </c>
       <c r="Y54">
-        <v>0.2701908622620151</v>
+        <v>0.2797512357225653</v>
       </c>
       <c r="Z54">
         <v>0</v>
@@ -5838,13 +5838,13 @@
         <v>0.53</v>
       </c>
       <c r="B55">
-        <v>0.2168793080925324</v>
+        <v>0.2159879966454234</v>
       </c>
       <c r="C55">
-        <v>3.327907312266465</v>
+        <v>3.871654378486287</v>
       </c>
       <c r="D55">
-        <v>25.14933731226646</v>
+        <v>25.69308437848629</v>
       </c>
       <c r="E55">
         <v>23.37043</v>
@@ -5871,37 +5871,37 @@
         <v>1.19</v>
       </c>
       <c r="M55">
-        <v>4.488991986</v>
+        <v>4.335582691</v>
       </c>
       <c r="N55">
-        <v>-3.298991986</v>
+        <v>-3.145582691</v>
       </c>
       <c r="O55">
-        <v>-0.7257782369200001</v>
+        <v>-0.69202819202</v>
       </c>
       <c r="P55">
-        <v>-2.57321374908</v>
+        <v>-2.45355449898</v>
       </c>
       <c r="Q55">
-        <v>-2.38321374908</v>
+        <v>-2.26355449898</v>
       </c>
       <c r="R55">
         <v>1.127659574468085</v>
       </c>
       <c r="S55">
-        <v>0.2594731034927408</v>
+        <v>0.2649064833925088</v>
       </c>
       <c r="T55">
-        <v>2.54628772711817</v>
+        <v>2.543414008956895</v>
       </c>
       <c r="U55">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V55">
-        <v>0.05832044272221607</v>
+        <v>0.06038404031445563</v>
       </c>
       <c r="W55">
-        <v>0.1791074517942345</v>
+        <v>0.1726074517942345</v>
       </c>
       <c r="X55" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         </is>
       </c>
       <c r="Y55">
-        <v>0.2650929214646185</v>
+        <v>0.2744729105202528</v>
       </c>
       <c r="Z55">
         <v>0</v>
@@ -5920,13 +5920,13 @@
         <v>0.54</v>
       </c>
       <c r="B56">
-        <v>0.2186233080925324</v>
+        <v>0.2177319966454234</v>
       </c>
       <c r="C56">
-        <v>2.666347786089805</v>
+        <v>3.211364241668292</v>
       </c>
       <c r="D56">
-        <v>24.9330877860898</v>
+        <v>25.47810424166829</v>
       </c>
       <c r="E56">
         <v>23.81574</v>
@@ -5953,37 +5953,37 @@
         <v>1.19</v>
       </c>
       <c r="M56">
-        <v>4.573689948</v>
+        <v>4.417386138</v>
       </c>
       <c r="N56">
-        <v>-3.383689948</v>
+        <v>-3.227386138</v>
       </c>
       <c r="O56">
-        <v>-0.74441178856</v>
+        <v>-0.7100249503600001</v>
       </c>
       <c r="P56">
-        <v>-2.63927815944</v>
+        <v>-2.51736118764</v>
       </c>
       <c r="Q56">
-        <v>-2.44927815944</v>
+        <v>-2.32736118764</v>
       </c>
       <c r="R56">
         <v>1.173913043478261</v>
       </c>
       <c r="S56">
-        <v>0.2647703448730177</v>
+        <v>0.2704631460749546</v>
       </c>
       <c r="T56">
-        <v>2.601641808142478</v>
+        <v>2.598705617847262</v>
       </c>
       <c r="U56">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V56">
-        <v>0.05724043452365652</v>
+        <v>0.0592658173456694</v>
       </c>
       <c r="W56">
-        <v>0.1793128693536005</v>
+        <v>0.1728128693536005</v>
       </c>
       <c r="X56" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
         </is>
       </c>
       <c r="Y56">
-        <v>0.2601837932893478</v>
+        <v>0.2693900788439518</v>
       </c>
       <c r="Z56">
         <v>0</v>
@@ -6002,13 +6002,13 @@
         <v>0.55</v>
       </c>
       <c r="B57">
-        <v>0.2203673080925325</v>
+        <v>0.2194759966454234</v>
       </c>
       <c r="C57">
-        <v>2.008475449006731</v>
+        <v>2.554641832512779</v>
       </c>
       <c r="D57">
-        <v>24.72052544900673</v>
+        <v>25.26669183251278</v>
       </c>
       <c r="E57">
         <v>24.26105</v>
@@ -6035,37 +6035,37 @@
         <v>1.19</v>
       </c>
       <c r="M57">
-        <v>4.658387910000001</v>
+        <v>4.499189585000001</v>
       </c>
       <c r="N57">
-        <v>-3.468387910000001</v>
+        <v>-3.309189585000001</v>
       </c>
       <c r="O57">
-        <v>-0.7630453402000003</v>
+        <v>-0.7280217087000002</v>
       </c>
       <c r="P57">
-        <v>-2.705342569800001</v>
+        <v>-2.581167876300001</v>
       </c>
       <c r="Q57">
-        <v>-2.515342569800001</v>
+        <v>-2.391167876300001</v>
       </c>
       <c r="R57">
         <v>1.222222222222223</v>
       </c>
       <c r="S57">
-        <v>0.2703030192035293</v>
+        <v>0.276266771543287</v>
       </c>
       <c r="T57">
-        <v>2.659456070545644</v>
+        <v>2.656454631577202</v>
       </c>
       <c r="U57">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V57">
-        <v>0.05619969935049911</v>
+        <v>0.05818825703029359</v>
       </c>
       <c r="W57">
-        <v>0.1795108171835351</v>
+        <v>0.1730108171835351</v>
       </c>
       <c r="X57" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
         </is>
       </c>
       <c r="Y57">
-        <v>0.255453178865905</v>
+        <v>0.2644920774104254</v>
       </c>
       <c r="Z57">
         <v>0</v>
@@ -6084,13 +6084,13 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="B58">
-        <v>0.2221113080925324</v>
+        <v>0.2212199966454234</v>
       </c>
       <c r="C58">
-        <v>1.35419679488075</v>
+        <v>1.901399068953754</v>
       </c>
       <c r="D58">
-        <v>24.51155679488075</v>
+        <v>25.05875906895375</v>
       </c>
       <c r="E58">
         <v>24.70636</v>
@@ -6117,37 +6117,37 @@
         <v>1.19</v>
       </c>
       <c r="M58">
-        <v>4.743085872000001</v>
+        <v>4.580993032</v>
       </c>
       <c r="N58">
-        <v>-3.553085872000001</v>
+        <v>-3.390993032</v>
       </c>
       <c r="O58">
-        <v>-0.7816788918400002</v>
+        <v>-0.7460184670400001</v>
       </c>
       <c r="P58">
-        <v>-2.771406980160001</v>
+        <v>-2.64497456496</v>
       </c>
       <c r="Q58">
-        <v>-2.581406980160001</v>
+        <v>-2.45497456496</v>
       </c>
       <c r="R58">
         <v>1.272727272727273</v>
       </c>
       <c r="S58">
-        <v>0.2760871787308822</v>
+        <v>0.2823341981692708</v>
       </c>
       <c r="T58">
-        <v>2.719898253967136</v>
+        <v>2.716828600476684</v>
       </c>
       <c r="U58">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V58">
-        <v>0.05519613329066878</v>
+        <v>0.05714918101189549</v>
       </c>
       <c r="W58">
-        <v>0.1797016954481148</v>
+        <v>0.1732016954481148</v>
       </c>
       <c r="X58" t="inlineStr">
         <is>
@@ -6155,7 +6155,7 @@
         </is>
       </c>
       <c r="Y58">
-        <v>0.2508915149575853</v>
+        <v>0.259769004599525</v>
       </c>
       <c r="Z58">
         <v>0</v>
@@ -6166,13 +6166,13 @@
         <v>0.5700000000000001</v>
       </c>
       <c r="B59">
-        <v>0.2238553080925325</v>
+        <v>0.2229639966454234</v>
       </c>
       <c r="C59">
-        <v>0.7034214527936342</v>
+        <v>1.251550744751292</v>
       </c>
       <c r="D59">
-        <v>24.30609145279363</v>
+        <v>24.85422074475129</v>
       </c>
       <c r="E59">
         <v>25.15167</v>
@@ -6199,37 +6199,37 @@
         <v>1.19</v>
       </c>
       <c r="M59">
-        <v>4.827783834000001</v>
+        <v>4.662796479</v>
       </c>
       <c r="N59">
-        <v>-3.637783834000001</v>
+        <v>-3.472796479</v>
       </c>
       <c r="O59">
-        <v>-0.8003124434800002</v>
+        <v>-0.76401522538</v>
       </c>
       <c r="P59">
-        <v>-2.837471390520001</v>
+        <v>-2.70878125362</v>
       </c>
       <c r="Q59">
-        <v>-2.647471390520001</v>
+        <v>-2.51878125362</v>
       </c>
       <c r="R59">
         <v>1.325581395348838</v>
       </c>
       <c r="S59">
-        <v>0.282140368933926</v>
+        <v>0.2886838306848352</v>
       </c>
       <c r="T59">
-        <v>2.783151701733814</v>
+        <v>2.780010660952885</v>
       </c>
       <c r="U59">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V59">
-        <v>0.05422778007504301</v>
+        <v>0.0561465638011605</v>
       </c>
       <c r="W59">
-        <v>0.1798858762297268</v>
+        <v>0.1733858762297268</v>
       </c>
       <c r="X59" t="inlineStr">
         <is>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="Y59">
-        <v>0.2464899094320137</v>
+        <v>0.2552116536416386</v>
       </c>
       <c r="Z59">
         <v>0</v>
@@ -6248,13 +6248,13 @@
         <v>0.58</v>
       </c>
       <c r="B60">
-        <v>0.2255993080925324</v>
+        <v>0.2247079966454234</v>
       </c>
       <c r="C60">
-        <v>0.05606205673473852</v>
+        <v>0.6050144130743185</v>
       </c>
       <c r="D60">
-        <v>24.10404205673473</v>
+        <v>24.65299441307431</v>
       </c>
       <c r="E60">
         <v>25.59697999999999</v>
@@ -6281,37 +6281,37 @@
         <v>1.19</v>
       </c>
       <c r="M60">
-        <v>4.912481796</v>
+        <v>4.744599925999999</v>
       </c>
       <c r="N60">
-        <v>-3.722481796</v>
+        <v>-3.554599925999999</v>
       </c>
       <c r="O60">
-        <v>-0.81894599512</v>
+        <v>-0.7820119837199999</v>
       </c>
       <c r="P60">
-        <v>-2.90353580088</v>
+        <v>-2.772587942279999</v>
       </c>
       <c r="Q60">
-        <v>-2.71353580088</v>
+        <v>-2.58258794228</v>
       </c>
       <c r="R60">
         <v>1.380952380952381</v>
       </c>
       <c r="S60">
-        <v>0.2884818062894955</v>
+        <v>0.2953358266535216</v>
       </c>
       <c r="T60">
-        <v>2.849417218441761</v>
+        <v>2.846201390975572</v>
       </c>
       <c r="U60">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V60">
-        <v>0.05329281834961124</v>
+        <v>0.05517851959769222</v>
       </c>
       <c r="W60">
-        <v>0.180063705949904</v>
+        <v>0.1735637059499039</v>
       </c>
       <c r="X60" t="inlineStr">
         <is>
@@ -6319,7 +6319,7 @@
         </is>
       </c>
       <c r="Y60">
-        <v>0.2422400834073238</v>
+        <v>0.2508114527167827</v>
       </c>
       <c r="Z60">
         <v>0</v>
@@ -6330,13 +6330,13 @@
         <v>0.59</v>
       </c>
       <c r="B61">
-        <v>0.2273433080925324</v>
+        <v>0.2264519966454234</v>
       </c>
       <c r="C61">
-        <v>-0.5879658782639758</v>
+        <v>-0.03828972430681787</v>
       </c>
       <c r="D61">
-        <v>23.90532412173602</v>
+        <v>24.45500027569318</v>
       </c>
       <c r="E61">
         <v>26.04229</v>
@@ -6363,37 +6363,37 @@
         <v>1.19</v>
       </c>
       <c r="M61">
-        <v>4.997179758</v>
+        <v>4.826403373</v>
       </c>
       <c r="N61">
-        <v>-3.807179758</v>
+        <v>-3.636403373</v>
       </c>
       <c r="O61">
-        <v>-0.8375795467599999</v>
+        <v>-0.8000087420599999</v>
       </c>
       <c r="P61">
-        <v>-2.96960021124</v>
+        <v>-2.83639463094</v>
       </c>
       <c r="Q61">
-        <v>-2.77960021124</v>
+        <v>-2.64639463094</v>
       </c>
       <c r="R61">
         <v>1.439024390243902</v>
       </c>
       <c r="S61">
-        <v>0.295132582052654</v>
+        <v>0.3023123102304368</v>
       </c>
       <c r="T61">
-        <v>2.918915199379365</v>
+        <v>2.915620937096927</v>
       </c>
       <c r="U61">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V61">
-        <v>0.05238955024199071</v>
+        <v>0.05424329045196861</v>
       </c>
       <c r="W61">
-        <v>0.1802355075439734</v>
+        <v>0.1737355075439734</v>
       </c>
       <c r="X61" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         </is>
       </c>
       <c r="Y61">
-        <v>0.238134319281776</v>
+        <v>0.2465604111453119</v>
       </c>
       <c r="Z61">
         <v>0</v>
@@ -6412,13 +6412,13 @@
         <v>0.6</v>
       </c>
       <c r="B62">
-        <v>0.2290873080925324</v>
+        <v>0.2281959966454234</v>
       </c>
       <c r="C62">
-        <v>-1.228744073915923</v>
+        <v>-0.6784389225306846</v>
       </c>
       <c r="D62">
-        <v>23.70985592608407</v>
+        <v>24.26016107746931</v>
       </c>
       <c r="E62">
         <v>26.4876</v>
@@ -6445,37 +6445,37 @@
         <v>1.19</v>
       </c>
       <c r="M62">
-        <v>5.08187772</v>
+        <v>4.90820682</v>
       </c>
       <c r="N62">
-        <v>-3.89187772</v>
+        <v>-3.71820682</v>
       </c>
       <c r="O62">
-        <v>-0.8562130983999999</v>
+        <v>-0.8180055004000001</v>
       </c>
       <c r="P62">
-        <v>-3.0356646216</v>
+        <v>-2.9002013196</v>
       </c>
       <c r="Q62">
-        <v>-2.8456646216</v>
+        <v>-2.7102013196</v>
       </c>
       <c r="R62">
         <v>1.5</v>
       </c>
       <c r="S62">
-        <v>0.3021158966039704</v>
+        <v>0.3096376179861977</v>
       </c>
       <c r="T62">
-        <v>2.991888079363849</v>
+        <v>2.988511460524351</v>
       </c>
       <c r="U62">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V62">
-        <v>0.05151639107129087</v>
+        <v>0.05333923561110247</v>
       </c>
       <c r="W62">
-        <v>0.1804015824182405</v>
+        <v>0.1739015824182405</v>
       </c>
       <c r="X62" t="inlineStr">
         <is>
@@ -6483,7 +6483,7 @@
         </is>
       </c>
       <c r="Y62">
-        <v>0.234165413960413</v>
+        <v>0.2424510709595566</v>
       </c>
       <c r="Z62">
         <v>0</v>
@@ -6494,13 +6494,13 @@
         <v>0.61</v>
       </c>
       <c r="B63">
-        <v>0.2308313080925324</v>
+        <v>0.2299399966454234</v>
       </c>
       <c r="C63">
-        <v>-1.866351600736049</v>
+        <v>-1.315507994151325</v>
       </c>
       <c r="D63">
-        <v>23.51755839926395</v>
+        <v>24.06840200584867</v>
       </c>
       <c r="E63">
         <v>26.93291</v>
@@ -6527,37 +6527,37 @@
         <v>1.19</v>
       </c>
       <c r="M63">
-        <v>5.166575682</v>
+        <v>4.990010267</v>
       </c>
       <c r="N63">
-        <v>-3.976575682</v>
+        <v>-3.800010267</v>
       </c>
       <c r="O63">
-        <v>-0.87484665004</v>
+        <v>-0.83600225874</v>
       </c>
       <c r="P63">
-        <v>-3.10172903196</v>
+        <v>-2.96400800826</v>
       </c>
       <c r="Q63">
-        <v>-2.91172903196</v>
+        <v>-2.77400800826</v>
       </c>
       <c r="R63">
         <v>1.564102564102564</v>
       </c>
       <c r="S63">
-        <v>0.309457329850226</v>
+        <v>0.3173385825499465</v>
       </c>
       <c r="T63">
-        <v>3.068603158321897</v>
+        <v>3.065139959512155</v>
       </c>
       <c r="U63">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V63">
-        <v>0.05067186007012217</v>
+        <v>0.05246482191255981</v>
       </c>
       <c r="W63">
-        <v>0.1805622122146628</v>
+        <v>0.1740622122146628</v>
       </c>
       <c r="X63" t="inlineStr">
         <is>
@@ -6565,7 +6565,7 @@
         </is>
       </c>
       <c r="Y63">
-        <v>0.2303266366823735</v>
+        <v>0.2384764632389083</v>
       </c>
       <c r="Z63">
         <v>0</v>
@@ -6576,13 +6576,13 @@
         <v>0.62</v>
       </c>
       <c r="B64">
-        <v>0.2325753080925324</v>
+        <v>0.2316839966454234</v>
       </c>
       <c r="C64">
-        <v>-2.500864984687922</v>
+        <v>-1.949569404915511</v>
       </c>
       <c r="D64">
-        <v>23.32835501531208</v>
+        <v>23.87965059508449</v>
       </c>
       <c r="E64">
         <v>27.37822</v>
@@ -6609,37 +6609,37 @@
         <v>1.19</v>
       </c>
       <c r="M64">
-        <v>5.251273644</v>
+        <v>5.071813714</v>
       </c>
       <c r="N64">
-        <v>-4.061273644</v>
+        <v>-3.881813714</v>
       </c>
       <c r="O64">
-        <v>-0.89348020168</v>
+        <v>-0.85399901708</v>
       </c>
       <c r="P64">
-        <v>-3.16779344232</v>
+        <v>-3.02781469692</v>
       </c>
       <c r="Q64">
-        <v>-2.97779344232</v>
+        <v>-2.83781469692</v>
       </c>
       <c r="R64">
         <v>1.631578947368421</v>
       </c>
       <c r="S64">
-        <v>0.3171851543199688</v>
+        <v>0.325444861038103</v>
       </c>
       <c r="T64">
-        <v>3.149355873014578</v>
+        <v>3.145801537394054</v>
       </c>
       <c r="U64">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V64">
-        <v>0.04985457200447503</v>
+        <v>0.05161861510751851</v>
       </c>
       <c r="W64">
-        <v>0.1807176604047488</v>
+        <v>0.1742176604047488</v>
       </c>
       <c r="X64" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="Y64">
-        <v>0.226611690929432</v>
+        <v>0.2346300686705387</v>
       </c>
       <c r="Z64">
         <v>0</v>
@@ -6658,13 +6658,13 @@
         <v>0.63</v>
       </c>
       <c r="B65">
-        <v>0.2343193080925324</v>
+        <v>0.2334279966454234</v>
       </c>
       <c r="C65">
-        <v>-3.132358308723873</v>
+        <v>-2.580693365068427</v>
       </c>
       <c r="D65">
-        <v>23.14217169127613</v>
+        <v>23.69383663493157</v>
       </c>
       <c r="E65">
         <v>27.82353</v>
@@ -6691,37 +6691,37 @@
         <v>1.19</v>
       </c>
       <c r="M65">
-        <v>5.335971606</v>
+        <v>5.153617161</v>
       </c>
       <c r="N65">
-        <v>-4.145971606</v>
+        <v>-3.963617161</v>
       </c>
       <c r="O65">
-        <v>-0.91211375332</v>
+        <v>-0.87199577542</v>
       </c>
       <c r="P65">
-        <v>-3.23385785268</v>
+        <v>-3.09162138558</v>
       </c>
       <c r="Q65">
-        <v>-3.04385785268</v>
+        <v>-2.90162138558</v>
       </c>
       <c r="R65">
         <v>1.702702702702703</v>
       </c>
       <c r="S65">
-        <v>0.3253306990313193</v>
+        <v>0.3339893167418355</v>
       </c>
       <c r="T65">
-        <v>3.234473599312269</v>
+        <v>3.230823200566866</v>
       </c>
       <c r="U65">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V65">
-        <v>0.04906322959170559</v>
+        <v>0.05079927201057378</v>
       </c>
       <c r="W65">
-        <v>0.1808681737316576</v>
+        <v>0.1743681737316576</v>
       </c>
       <c r="X65" t="inlineStr">
         <is>
@@ -6729,7 +6729,7 @@
         </is>
       </c>
       <c r="Y65">
-        <v>0.2230146799622982</v>
+        <v>0.2309057818662444</v>
       </c>
       <c r="Z65">
         <v>0</v>
@@ -6740,13 +6740,13 @@
         <v>0.64</v>
       </c>
       <c r="B66">
-        <v>0.2360633080925325</v>
+        <v>0.2351719966454234</v>
       </c>
       <c r="C66">
-        <v>-3.760903309501359</v>
+        <v>-3.208947916429477</v>
       </c>
       <c r="D66">
-        <v>22.95893669049864</v>
+        <v>23.51089208357052</v>
       </c>
       <c r="E66">
         <v>28.26884</v>
@@ -6773,37 +6773,37 @@
         <v>1.19</v>
       </c>
       <c r="M66">
-        <v>5.420669568</v>
+        <v>5.235420608</v>
       </c>
       <c r="N66">
-        <v>-4.230669568</v>
+        <v>-4.045420608000001</v>
       </c>
       <c r="O66">
-        <v>-0.9307473049599999</v>
+        <v>-0.8899925337600001</v>
       </c>
       <c r="P66">
-        <v>-3.29992226304</v>
+        <v>-3.15542807424</v>
       </c>
       <c r="Q66">
-        <v>-3.10992226304</v>
+        <v>-2.965428074240001</v>
       </c>
       <c r="R66">
         <v>1.777777777777778</v>
       </c>
       <c r="S66">
-        <v>0.3339287740044115</v>
+        <v>0.3430084644291087</v>
       </c>
       <c r="T66">
-        <v>3.324320088182055</v>
+        <v>3.320568289471502</v>
       </c>
       <c r="U66">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V66">
-        <v>0.04829661662933518</v>
+        <v>0.05000553338540856</v>
       </c>
       <c r="W66">
-        <v>0.1810139835171005</v>
+        <v>0.1745139835171005</v>
       </c>
       <c r="X66" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         </is>
       </c>
       <c r="Y66">
-        <v>0.2195300755878873</v>
+        <v>0.2272978790245843</v>
       </c>
       <c r="Z66">
         <v>0</v>
@@ -6822,13 +6822,13 @@
         <v>0.65</v>
       </c>
       <c r="B67">
-        <v>0.2378073080925324</v>
+        <v>0.2369159966454234</v>
       </c>
       <c r="C67">
-        <v>-4.38656946954065</v>
+        <v>-3.834399015464886</v>
       </c>
       <c r="D67">
-        <v>22.77858053045935</v>
+        <v>23.33075098453511</v>
       </c>
       <c r="E67">
         <v>28.71415</v>
@@ -6855,37 +6855,37 @@
         <v>1.19</v>
       </c>
       <c r="M67">
-        <v>5.505367530000001</v>
+        <v>5.317224055000001</v>
       </c>
       <c r="N67">
-        <v>-4.315367530000001</v>
+        <v>-4.127224055000001</v>
       </c>
       <c r="O67">
-        <v>-0.9493808566000003</v>
+        <v>-0.9079892921000002</v>
       </c>
       <c r="P67">
-        <v>-3.365986673400001</v>
+        <v>-3.219234762900001</v>
       </c>
       <c r="Q67">
-        <v>-3.175986673400001</v>
+        <v>-3.029234762900001</v>
       </c>
       <c r="R67">
         <v>1.857142857142857</v>
       </c>
       <c r="S67">
-        <v>0.3430181675473947</v>
+        <v>0.3525429919842261</v>
       </c>
       <c r="T67">
-        <v>3.419300662130114</v>
+        <v>3.415441669170687</v>
       </c>
       <c r="U67">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V67">
-        <v>0.04755359175811464</v>
+        <v>0.0492362174871715</v>
       </c>
       <c r="W67">
-        <v>0.1811553068476066</v>
+        <v>0.1746553068476066</v>
       </c>
       <c r="X67" t="inlineStr">
         <is>
@@ -6893,7 +6893,7 @@
         </is>
       </c>
       <c r="Y67">
-        <v>0.2161526898096119</v>
+        <v>0.2238009885780522</v>
       </c>
       <c r="Z67">
         <v>0</v>
@@ -6904,13 +6904,13 @@
         <v>0.66</v>
       </c>
       <c r="B68">
-        <v>0.2395513080925324</v>
+        <v>0.2386599966454234</v>
       </c>
       <c r="C68">
-        <v>-5.00942410507276</v>
+        <v>-4.457110612570464</v>
       </c>
       <c r="D68">
-        <v>22.60103589492724</v>
+        <v>23.15334938742954</v>
       </c>
       <c r="E68">
         <v>29.15946</v>
@@ -6937,37 +6937,37 @@
         <v>1.19</v>
       </c>
       <c r="M68">
-        <v>5.590065492000001</v>
+        <v>5.399027502</v>
       </c>
       <c r="N68">
-        <v>-4.400065492000001</v>
+        <v>-4.209027502</v>
       </c>
       <c r="O68">
-        <v>-0.9680144082400003</v>
+        <v>-0.9259860504399999</v>
       </c>
       <c r="P68">
-        <v>-3.432051083760001</v>
+        <v>-3.28304145156</v>
       </c>
       <c r="Q68">
-        <v>-3.242051083760001</v>
+        <v>-3.09304145156</v>
       </c>
       <c r="R68">
         <v>1.941176470588236</v>
       </c>
       <c r="S68">
-        <v>0.3526422312987887</v>
+        <v>0.3626383741014091</v>
       </c>
       <c r="T68">
-        <v>3.519868328663352</v>
+        <v>3.515895835911001</v>
       </c>
       <c r="U68">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V68">
-        <v>0.0468330827920826</v>
+        <v>0.04849021419191133</v>
       </c>
       <c r="W68">
-        <v>0.1812923476529459</v>
+        <v>0.1747923476529459</v>
       </c>
       <c r="X68" t="inlineStr">
         <is>
@@ -6975,7 +6975,7 @@
         </is>
       </c>
       <c r="Y68">
-        <v>0.2128776490549208</v>
+        <v>0.2204100645086879</v>
       </c>
       <c r="Z68">
         <v>0</v>
@@ -6986,13 +6986,13 @@
         <v>0.67</v>
       </c>
       <c r="B69">
-        <v>0.2412953080925324</v>
+        <v>0.2404039966454234</v>
       </c>
       <c r="C69">
-        <v>-5.629532449810728</v>
+        <v>-5.077144727764509</v>
       </c>
       <c r="D69">
-        <v>22.42623755018927</v>
+        <v>22.97862527223549</v>
       </c>
       <c r="E69">
         <v>29.60477</v>
@@ -7019,37 +7019,37 @@
         <v>1.19</v>
       </c>
       <c r="M69">
-        <v>5.674763454</v>
+        <v>5.480830949</v>
       </c>
       <c r="N69">
-        <v>-4.484763453999999</v>
+        <v>-4.290830949</v>
       </c>
       <c r="O69">
-        <v>-0.9866479598799999</v>
+        <v>-0.9439828087800001</v>
       </c>
       <c r="P69">
-        <v>-3.498115494119999</v>
+        <v>-3.34684814022</v>
       </c>
       <c r="Q69">
-        <v>-3.30811549412</v>
+        <v>-3.15684814022</v>
       </c>
       <c r="R69">
         <v>2.030303030303031</v>
       </c>
       <c r="S69">
-        <v>0.3628495716411762</v>
+        <v>0.3733455975590277</v>
       </c>
       <c r="T69">
-        <v>3.626531005289515</v>
+        <v>3.622438133968911</v>
       </c>
       <c r="U69">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V69">
-        <v>0.04613408155637989</v>
+        <v>0.04776647965173354</v>
       </c>
       <c r="W69">
-        <v>0.1814252976879765</v>
+        <v>0.1749252976879765</v>
       </c>
       <c r="X69" t="inlineStr">
         <is>
@@ -7057,7 +7057,7 @@
         </is>
       </c>
       <c r="Y69">
-        <v>0.2097003707108177</v>
+        <v>0.2171203620533344</v>
       </c>
       <c r="Z69">
         <v>0</v>
@@ -7068,13 +7068,13 @@
         <v>0.68</v>
       </c>
       <c r="B70">
-        <v>0.2430393080925324</v>
+        <v>0.2421479966454234</v>
       </c>
       <c r="C70">
-        <v>-6.246957734863454</v>
+        <v>-5.694561522979086</v>
       </c>
       <c r="D70">
-        <v>22.25412226513655</v>
+        <v>22.80651847702092</v>
       </c>
       <c r="E70">
         <v>30.05008</v>
@@ -7101,37 +7101,37 @@
         <v>1.19</v>
       </c>
       <c r="M70">
-        <v>5.759461416000001</v>
+        <v>5.562634396000001</v>
       </c>
       <c r="N70">
-        <v>-4.569461416000001</v>
+        <v>-4.372634396</v>
       </c>
       <c r="O70">
-        <v>-1.00528151152</v>
+        <v>-0.9619795671200001</v>
       </c>
       <c r="P70">
-        <v>-3.564179904480001</v>
+        <v>-3.41065482888</v>
       </c>
       <c r="Q70">
-        <v>-3.374179904480001</v>
+        <v>-3.22065482888</v>
       </c>
       <c r="R70">
         <v>2.125</v>
       </c>
       <c r="S70">
-        <v>0.3736948707549629</v>
+        <v>0.3847220224827473</v>
       </c>
       <c r="T70">
-        <v>3.739860099204812</v>
+        <v>3.735639325655439</v>
       </c>
       <c r="U70">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V70">
-        <v>0.04545563918055076</v>
+        <v>0.04706403142156099</v>
       </c>
       <c r="W70">
-        <v>0.1815543374278593</v>
+        <v>0.1750543374278593</v>
       </c>
       <c r="X70" t="inlineStr">
         <is>
@@ -7139,7 +7139,7 @@
         </is>
       </c>
       <c r="Y70">
-        <v>0.2066165417297761</v>
+        <v>0.21392741555255</v>
       </c>
       <c r="Z70">
         <v>0</v>
@@ -7150,13 +7150,13 @@
         <v>0.6900000000000001</v>
       </c>
       <c r="B71">
-        <v>0.2447833080925325</v>
+        <v>0.2438919966454234</v>
       </c>
       <c r="C71">
-        <v>-6.8617612649976</v>
+        <v>-6.309419371126872</v>
       </c>
       <c r="D71">
-        <v>22.0846287350024</v>
+        <v>22.63697062887313</v>
       </c>
       <c r="E71">
         <v>30.49539</v>
@@ -7183,37 +7183,37 @@
         <v>1.19</v>
       </c>
       <c r="M71">
-        <v>5.844159378000001</v>
+        <v>5.644437843</v>
       </c>
       <c r="N71">
-        <v>-4.654159378000001</v>
+        <v>-4.454437843000001</v>
       </c>
       <c r="O71">
-        <v>-1.02391506316</v>
+        <v>-0.9799763254600002</v>
       </c>
       <c r="P71">
-        <v>-3.630244314840001</v>
+        <v>-3.474461517540001</v>
       </c>
       <c r="Q71">
-        <v>-3.440244314840001</v>
+        <v>-3.284461517540001</v>
       </c>
       <c r="R71">
         <v>2.225806451612904</v>
       </c>
       <c r="S71">
-        <v>0.3852398665857683</v>
+        <v>0.3968324103047714</v>
       </c>
       <c r="T71">
-        <v>3.860500747566257</v>
+        <v>3.856143820031421</v>
       </c>
       <c r="U71">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V71">
-        <v>0.04479686180112249</v>
+        <v>0.04638194400965431</v>
       </c>
       <c r="W71">
-        <v>0.1816796368854265</v>
+        <v>0.1751796368854265</v>
       </c>
       <c r="X71" t="inlineStr">
         <is>
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="Y71">
-        <v>0.2036220990960113</v>
+        <v>0.2108270182257014</v>
       </c>
       <c r="Z71">
         <v>0</v>
@@ -7232,13 +7232,13 @@
         <v>0.7000000000000001</v>
       </c>
       <c r="B72">
-        <v>0.2465273080925324</v>
+        <v>0.2456359966454234</v>
       </c>
       <c r="C72">
-        <v>-7.474002491440885</v>
+        <v>-6.921774922109886</v>
       </c>
       <c r="D72">
-        <v>21.91769750855912</v>
+        <v>22.46992507789011</v>
       </c>
       <c r="E72">
         <v>30.9407</v>
@@ -7265,37 +7265,37 @@
         <v>1.19</v>
       </c>
       <c r="M72">
-        <v>5.92885734</v>
+        <v>5.72624129</v>
       </c>
       <c r="N72">
-        <v>-4.738857340000001</v>
+        <v>-4.53624129</v>
       </c>
       <c r="O72">
-        <v>-1.0425486148</v>
+        <v>-0.9979730837999999</v>
       </c>
       <c r="P72">
-        <v>-3.696308725200001</v>
+        <v>-3.5382682062</v>
       </c>
       <c r="Q72">
-        <v>-3.506308725200001</v>
+        <v>-3.3482682062</v>
       </c>
       <c r="R72">
         <v>2.333333333333334</v>
       </c>
       <c r="S72">
-        <v>0.3975545288052939</v>
+        <v>0.4097501573149305</v>
       </c>
       <c r="T72">
-        <v>3.989184105818467</v>
+        <v>3.984681947365802</v>
       </c>
       <c r="U72">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V72">
-        <v>0.04415690663253503</v>
+        <v>0.0457193448095164</v>
       </c>
       <c r="W72">
-        <v>0.1818013563584918</v>
+        <v>0.1753013563584918</v>
       </c>
       <c r="X72" t="inlineStr">
         <is>
@@ -7303,7 +7303,7 @@
         </is>
       </c>
       <c r="Y72">
-        <v>0.2007132119660682</v>
+        <v>0.20781520367962</v>
       </c>
       <c r="Z72">
         <v>0</v>
@@ -7314,13 +7314,13 @@
         <v>0.71</v>
       </c>
       <c r="B73">
-        <v>0.2482713080925324</v>
+        <v>0.2473799966454234</v>
       </c>
       <c r="C73">
-        <v>-8.083739081408325</v>
+        <v>-7.531683165927078</v>
       </c>
       <c r="D73">
-        <v>21.75327091859167</v>
+        <v>22.30532683407292</v>
       </c>
       <c r="E73">
         <v>31.38601</v>
@@ -7347,37 +7347,37 @@
         <v>1.19</v>
       </c>
       <c r="M73">
-        <v>6.013555301999999</v>
+        <v>5.808044736999999</v>
       </c>
       <c r="N73">
-        <v>-4.823555301999999</v>
+        <v>-4.618044737</v>
       </c>
       <c r="O73">
-        <v>-1.06118216644</v>
+        <v>-1.01596984214</v>
       </c>
       <c r="P73">
-        <v>-3.762373135559999</v>
+        <v>-3.60207489486</v>
       </c>
       <c r="Q73">
-        <v>-3.572373135559999</v>
+        <v>-3.41207489486</v>
       </c>
       <c r="R73">
         <v>2.448275862068965</v>
       </c>
       <c r="S73">
-        <v>0.4107184780744418</v>
+        <v>0.4235587834292384</v>
       </c>
       <c r="T73">
-        <v>4.126742178432895</v>
+        <v>4.122084773137036</v>
       </c>
       <c r="U73">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V73">
-        <v>0.04353497837010496</v>
+        <v>0.04507541037557955</v>
       </c>
       <c r="W73">
-        <v>0.181919647114006</v>
+        <v>0.175419647114006</v>
       </c>
       <c r="X73" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="Y73">
-        <v>0.1978862653186589</v>
+        <v>0.204888228979907</v>
       </c>
       <c r="Z73">
         <v>0</v>
@@ -7396,13 +7396,13 @@
         <v>0.72</v>
       </c>
       <c r="B74">
-        <v>0.2500153080925325</v>
+        <v>0.2491239966454234</v>
       </c>
       <c r="C74">
-        <v>-8.69102698452232</v>
+        <v>-8.139197493028409</v>
       </c>
       <c r="D74">
-        <v>21.59129301547768</v>
+        <v>22.14312250697159</v>
       </c>
       <c r="E74">
         <v>31.83132</v>
@@ -7429,37 +7429,37 @@
         <v>1.19</v>
       </c>
       <c r="M74">
-        <v>6.098253264</v>
+        <v>5.889848184</v>
       </c>
       <c r="N74">
-        <v>-4.908253264000001</v>
+        <v>-4.699848184</v>
       </c>
       <c r="O74">
-        <v>-1.07981571808</v>
+        <v>-1.03396660048</v>
       </c>
       <c r="P74">
-        <v>-3.828437545920001</v>
+        <v>-3.66588158352</v>
       </c>
       <c r="Q74">
-        <v>-3.638437545920001</v>
+        <v>-3.47588158352</v>
       </c>
       <c r="R74">
         <v>2.571428571428571</v>
       </c>
       <c r="S74">
-        <v>0.4248227094342433</v>
+        <v>0.4383537399802825</v>
       </c>
       <c r="T74">
-        <v>4.274125827662641</v>
+        <v>4.269302086463358</v>
       </c>
       <c r="U74">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V74">
-        <v>0.04293032589274239</v>
+        <v>0.04444936300925206</v>
       </c>
       <c r="W74">
-        <v>0.1820346520152004</v>
+        <v>0.1755346520152004</v>
       </c>
       <c r="X74" t="inlineStr">
         <is>
@@ -7467,7 +7467,7 @@
         </is>
       </c>
       <c r="Y74">
-        <v>0.1951378449670108</v>
+        <v>0.2020425591329638</v>
       </c>
       <c r="Z74">
         <v>0</v>
@@ -7478,13 +7478,13 @@
         <v>0.73</v>
       </c>
       <c r="B75">
-        <v>0.2517593080925324</v>
+        <v>0.2508679966454234</v>
       </c>
       <c r="C75">
-        <v>-9.295920496287088</v>
+        <v>-8.74436975205456</v>
       </c>
       <c r="D75">
-        <v>21.43170950371291</v>
+        <v>21.98326024794544</v>
       </c>
       <c r="E75">
         <v>32.27663</v>
@@ -7511,37 +7511,37 @@
         <v>1.19</v>
       </c>
       <c r="M75">
-        <v>6.182951226</v>
+        <v>5.971651631</v>
       </c>
       <c r="N75">
-        <v>-4.992951226000001</v>
+        <v>-4.781651631000001</v>
       </c>
       <c r="O75">
-        <v>-1.09844926972</v>
+        <v>-1.05196335882</v>
       </c>
       <c r="P75">
-        <v>-3.894501956280001</v>
+        <v>-3.729688272180001</v>
       </c>
       <c r="Q75">
-        <v>-3.704501956280001</v>
+        <v>-3.539688272180001</v>
       </c>
       <c r="R75">
         <v>2.703703703703703</v>
       </c>
       <c r="S75">
-        <v>0.4399716986725486</v>
+        <v>0.4542446192388115</v>
       </c>
       <c r="T75">
-        <v>4.432426784242739</v>
+        <v>4.427424385962001</v>
       </c>
       <c r="U75">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V75">
-        <v>0.04234223923667742</v>
+        <v>0.04384046762556366</v>
       </c>
       <c r="W75">
-        <v>0.1821465060971839</v>
+        <v>0.175646506097184</v>
       </c>
       <c r="X75" t="inlineStr">
         <is>
@@ -7549,7 +7549,7 @@
         </is>
       </c>
       <c r="Y75">
-        <v>0.1924647238030791</v>
+        <v>0.1992748528434711</v>
       </c>
       <c r="Z75">
         <v>0</v>
@@ -7560,13 +7560,13 @@
         <v>0.74</v>
       </c>
       <c r="B76">
-        <v>0.2535033080925324</v>
+        <v>0.2526119966454234</v>
       </c>
       <c r="C76">
-        <v>-9.898472318769109</v>
+        <v>-9.347250305093457</v>
       </c>
       <c r="D76">
-        <v>21.27446768123089</v>
+        <v>21.82568969490654</v>
       </c>
       <c r="E76">
         <v>32.72194</v>
@@ -7593,37 +7593,37 @@
         <v>1.19</v>
       </c>
       <c r="M76">
-        <v>6.267649188</v>
+        <v>6.053455078</v>
       </c>
       <c r="N76">
-        <v>-5.077649188000001</v>
+        <v>-4.863455077999999</v>
       </c>
       <c r="O76">
-        <v>-1.11708282136</v>
+        <v>-1.06996011716</v>
       </c>
       <c r="P76">
-        <v>-3.96056636664</v>
+        <v>-3.793494960839999</v>
       </c>
       <c r="Q76">
-        <v>-3.77056636664</v>
+        <v>-3.60349496084</v>
       </c>
       <c r="R76">
         <v>2.846153846153846</v>
       </c>
       <c r="S76">
-        <v>0.4562859947753389</v>
+        <v>0.4713578738249197</v>
       </c>
       <c r="T76">
-        <v>4.602904737482844</v>
+        <v>4.597709939268232</v>
       </c>
       <c r="U76">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V76">
-        <v>0.04177004681456016</v>
+        <v>0.04324802887386687</v>
       </c>
       <c r="W76">
-        <v>0.1822553370958707</v>
+        <v>0.1757553370958707</v>
       </c>
       <c r="X76" t="inlineStr">
         <is>
@@ -7631,7 +7631,7 @@
         </is>
       </c>
       <c r="Y76">
-        <v>0.1898638491570915</v>
+        <v>0.1965819494266676</v>
       </c>
       <c r="Z76">
         <v>0</v>
@@ -7642,13 +7642,13 @@
         <v>0.75</v>
       </c>
       <c r="B77">
-        <v>0.2552473080925325</v>
+        <v>0.2543559966454234</v>
       </c>
       <c r="C77">
-        <v>-10.49873361862557</v>
+        <v>-9.947888080577329</v>
       </c>
       <c r="D77">
-        <v>21.11951638137443</v>
+        <v>21.67036191942267</v>
       </c>
       <c r="E77">
         <v>33.16725</v>
@@ -7675,37 +7675,37 @@
         <v>1.19</v>
       </c>
       <c r="M77">
-        <v>6.35234715</v>
+        <v>6.135258524999999</v>
       </c>
       <c r="N77">
-        <v>-5.16234715</v>
+        <v>-4.945258525</v>
       </c>
       <c r="O77">
-        <v>-1.135716373</v>
+        <v>-1.0879568755</v>
       </c>
       <c r="P77">
-        <v>-4.026630777</v>
+        <v>-3.8573016495</v>
       </c>
       <c r="Q77">
-        <v>-3.836630777</v>
+        <v>-3.6673016495</v>
       </c>
       <c r="R77">
         <v>3</v>
       </c>
       <c r="S77">
-        <v>0.4739054345663526</v>
+        <v>0.4898401887779165</v>
       </c>
       <c r="T77">
-        <v>4.787020926982159</v>
+        <v>4.781618336838962</v>
       </c>
       <c r="U77">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V77">
-        <v>0.04121311285703269</v>
+        <v>0.04267138848888197</v>
       </c>
       <c r="W77">
-        <v>0.1823612659345924</v>
+        <v>0.1758612659345924</v>
       </c>
       <c r="X77" t="inlineStr">
         <is>
@@ -7713,7 +7713,7 @@
         </is>
       </c>
       <c r="Y77">
-        <v>0.1873323311683304</v>
+        <v>0.1939608567676453</v>
       </c>
       <c r="Z77">
         <v>0</v>
@@ -7724,13 +7724,13 @@
         <v>0.76</v>
       </c>
       <c r="B78">
-        <v>0.2569913080925325</v>
+        <v>0.2560999966454234</v>
       </c>
       <c r="C78">
-        <v>-11.09675408261536</v>
+        <v>-10.546330623937</v>
       </c>
       <c r="D78">
-        <v>20.96680591738463</v>
+        <v>21.51722937606299</v>
       </c>
       <c r="E78">
         <v>33.61255999999999</v>
@@ -7757,37 +7757,37 @@
         <v>1.19</v>
       </c>
       <c r="M78">
-        <v>6.437045112</v>
+        <v>6.217061972</v>
       </c>
       <c r="N78">
-        <v>-5.247045112</v>
+        <v>-5.027061972</v>
       </c>
       <c r="O78">
-        <v>-1.15434992464</v>
+        <v>-1.10595363384</v>
       </c>
       <c r="P78">
-        <v>-4.09269518736</v>
+        <v>-3.92110833816</v>
       </c>
       <c r="Q78">
-        <v>-3.90269518736</v>
+        <v>-3.73110833816</v>
       </c>
       <c r="R78">
         <v>3.166666666666667</v>
       </c>
       <c r="S78">
-        <v>0.4929931610066172</v>
+        <v>0.509862696643663</v>
       </c>
       <c r="T78">
-        <v>4.986480132273082</v>
+        <v>4.980852434207252</v>
       </c>
       <c r="U78">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V78">
-        <v>0.04067083505628227</v>
+        <v>0.04210992285087037</v>
       </c>
       <c r="W78">
-        <v>0.1824644071722951</v>
+        <v>0.1759644071722951</v>
       </c>
       <c r="X78" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="Y78">
-        <v>0.1848674320740102</v>
+        <v>0.1914087402312289</v>
       </c>
       <c r="Z78">
         <v>0</v>
@@ -7806,13 +7806,13 @@
         <v>0.77</v>
       </c>
       <c r="B79">
-        <v>0.2587353080925325</v>
+        <v>0.2578439966454235</v>
       </c>
       <c r="C79">
-        <v>-11.69258197071911</v>
+        <v>-11.14262414612358</v>
       </c>
       <c r="D79">
-        <v>20.81628802928089</v>
+        <v>21.36624585387642</v>
       </c>
       <c r="E79">
         <v>34.05787</v>
@@ -7839,37 +7839,37 @@
         <v>1.19</v>
       </c>
       <c r="M79">
-        <v>6.521743074000001</v>
+        <v>6.298865419</v>
       </c>
       <c r="N79">
-        <v>-5.331743074</v>
+        <v>-5.108865419000001</v>
       </c>
       <c r="O79">
-        <v>-1.17298347628</v>
+        <v>-1.12395039218</v>
       </c>
       <c r="P79">
-        <v>-4.15875959772</v>
+        <v>-3.98491502682</v>
       </c>
       <c r="Q79">
-        <v>-3.968759597720001</v>
+        <v>-3.79491502682</v>
       </c>
       <c r="R79">
         <v>3.347826086956522</v>
       </c>
       <c r="S79">
-        <v>0.5137406897460356</v>
+        <v>0.5316262921499093</v>
       </c>
       <c r="T79">
-        <v>5.203283616284956</v>
+        <v>5.197411235694524</v>
       </c>
       <c r="U79">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V79">
-        <v>0.04014264239321366</v>
+        <v>0.041563040735924</v>
       </c>
       <c r="W79">
-        <v>0.1825648694168108</v>
+        <v>0.1760648694168108</v>
       </c>
       <c r="X79" t="inlineStr">
         <is>
@@ -7877,7 +7877,7 @@
         </is>
       </c>
       <c r="Y79">
-        <v>0.1824665563327894</v>
+        <v>0.1889229124360181</v>
       </c>
       <c r="Z79">
         <v>0</v>
@@ -7888,13 +7888,13 @@
         <v>0.78</v>
       </c>
       <c r="B80">
-        <v>0.2604793080925324</v>
+        <v>0.2595879966454234</v>
       </c>
       <c r="C80">
-        <v>-12.28626416698728</v>
+        <v>-11.73681357010151</v>
       </c>
       <c r="D80">
-        <v>20.66791583301272</v>
+        <v>21.21736642989849</v>
       </c>
       <c r="E80">
         <v>34.50318</v>
@@ -7921,37 +7921,37 @@
         <v>1.19</v>
       </c>
       <c r="M80">
-        <v>6.606441036000001</v>
+        <v>6.380668866000001</v>
       </c>
       <c r="N80">
-        <v>-5.416441036</v>
+        <v>-5.190668866000001</v>
       </c>
       <c r="O80">
-        <v>-1.19161702792</v>
+        <v>-1.14194715052</v>
       </c>
       <c r="P80">
-        <v>-4.224824008080001</v>
+        <v>-4.048721715480001</v>
       </c>
       <c r="Q80">
-        <v>-4.034824008080001</v>
+        <v>-3.858721715480001</v>
       </c>
       <c r="R80">
         <v>3.545454545454546</v>
       </c>
       <c r="S80">
-        <v>0.5363743574617643</v>
+        <v>0.5553683963385416</v>
       </c>
       <c r="T80">
-        <v>5.439796507934271</v>
+        <v>5.433657200953367</v>
       </c>
       <c r="U80">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V80">
-        <v>0.03962799313176221</v>
+        <v>0.04103018123930958</v>
       </c>
       <c r="W80">
-        <v>0.1826627557063388</v>
+        <v>0.1761627557063388</v>
       </c>
       <c r="X80" t="inlineStr">
         <is>
@@ -7959,7 +7959,7 @@
         </is>
       </c>
       <c r="Y80">
-        <v>0.1801272415080101</v>
+        <v>0.1865008238150435</v>
       </c>
       <c r="Z80">
         <v>0</v>
@@ -7970,13 +7970,13 @@
         <v>0.79</v>
       </c>
       <c r="B81">
-        <v>0.2622233080925325</v>
+        <v>0.2613319966454234</v>
       </c>
       <c r="C81">
-        <v>-12.87784622822931</v>
+        <v>-12.32894257541139</v>
       </c>
       <c r="D81">
-        <v>20.52164377177069</v>
+        <v>21.07054742458861</v>
       </c>
       <c r="E81">
         <v>34.94849</v>
@@ -8003,37 +8003,37 @@
         <v>1.19</v>
       </c>
       <c r="M81">
-        <v>6.691138998</v>
+        <v>6.462472313</v>
       </c>
       <c r="N81">
-        <v>-5.501138998</v>
+        <v>-5.272472313</v>
       </c>
       <c r="O81">
-        <v>-1.21025057956</v>
+        <v>-1.15994390886</v>
       </c>
       <c r="P81">
-        <v>-4.29088841844</v>
+        <v>-4.11252840414</v>
       </c>
       <c r="Q81">
-        <v>-4.10088841844</v>
+        <v>-3.92252840414</v>
       </c>
       <c r="R81">
         <v>3.761904761904763</v>
       </c>
       <c r="S81">
-        <v>0.5611636125789915</v>
+        <v>0.5813716533070437</v>
       </c>
       <c r="T81">
-        <v>5.698834436883525</v>
+        <v>5.692402781951147</v>
       </c>
       <c r="U81">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V81">
-        <v>0.03912637296553736</v>
+        <v>0.04051081185653352</v>
       </c>
       <c r="W81">
-        <v>0.1827581638619548</v>
+        <v>0.1762581638619548</v>
       </c>
       <c r="X81" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
         </is>
       </c>
       <c r="Y81">
-        <v>0.1778471498433517</v>
+        <v>0.1841400538933342</v>
       </c>
       <c r="Z81">
         <v>0</v>
@@ -8052,13 +8052,13 @@
         <v>0.8</v>
       </c>
       <c r="B82">
-        <v>0.2639673080925324</v>
+        <v>0.2630759966454234</v>
       </c>
       <c r="C82">
-        <v>-13.46737243064958</v>
+        <v>-12.91905364089522</v>
       </c>
       <c r="D82">
-        <v>20.37742756935042</v>
+        <v>20.92574635910477</v>
       </c>
       <c r="E82">
         <v>35.3938</v>
@@ -8085,37 +8085,37 @@
         <v>1.19</v>
       </c>
       <c r="M82">
-        <v>6.77583696</v>
+        <v>6.544275760000001</v>
       </c>
       <c r="N82">
-        <v>-5.58583696</v>
+        <v>-5.35427576</v>
       </c>
       <c r="O82">
-        <v>-1.2288841312</v>
+        <v>-1.1779406672</v>
       </c>
       <c r="P82">
-        <v>-4.3569528288</v>
+        <v>-4.1763350928</v>
       </c>
       <c r="Q82">
-        <v>-4.1669528288</v>
+        <v>-3.986335092800001</v>
       </c>
       <c r="R82">
         <v>4.000000000000001</v>
       </c>
       <c r="S82">
-        <v>0.5884317932079409</v>
+        <v>0.6099752359723958</v>
       </c>
       <c r="T82">
-        <v>5.9837761587277</v>
+        <v>5.977022921048704</v>
       </c>
       <c r="U82">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V82">
-        <v>0.03863729330346815</v>
+        <v>0.04000442670832684</v>
       </c>
       <c r="W82">
-        <v>0.1828511868136804</v>
+        <v>0.1763511868136804</v>
       </c>
       <c r="X82" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         </is>
       </c>
       <c r="Y82">
-        <v>0.1756240604703099</v>
+        <v>0.1818383032196675</v>
       </c>
       <c r="Z82">
         <v>0</v>
@@ -8134,13 +8134,13 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="B83">
-        <v>0.2657113080925324</v>
+        <v>0.2648199966454234</v>
       </c>
       <c r="C83">
-        <v>-14.05488581453083</v>
+        <v>-13.50718808567213</v>
       </c>
       <c r="D83">
-        <v>20.23522418546917</v>
+        <v>20.78292191432787</v>
       </c>
       <c r="E83">
         <v>35.83911</v>
@@ -8167,37 +8167,37 @@
         <v>1.19</v>
       </c>
       <c r="M83">
-        <v>6.860534922</v>
+        <v>6.626079207</v>
       </c>
       <c r="N83">
-        <v>-5.670534922</v>
+        <v>-5.436079207000001</v>
       </c>
       <c r="O83">
-        <v>-1.24751768284</v>
+        <v>-1.19593742554</v>
       </c>
       <c r="P83">
-        <v>-4.42301723916</v>
+        <v>-4.24014178146</v>
       </c>
       <c r="Q83">
-        <v>-4.23301723916</v>
+        <v>-4.050141781460001</v>
       </c>
       <c r="R83">
         <v>4.263157894736843</v>
       </c>
       <c r="S83">
-        <v>0.6185703086399378</v>
+        <v>0.6415897220762061</v>
       </c>
       <c r="T83">
-        <v>6.298711746029158</v>
+        <v>6.291603074788109</v>
       </c>
       <c r="U83">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V83">
-        <v>0.03816028968243768</v>
+        <v>0.03951054489711294</v>
       </c>
       <c r="W83">
-        <v>0.1829419129024004</v>
+        <v>0.1764419129024004</v>
       </c>
       <c r="X83" t="inlineStr">
         <is>
@@ -8205,7 +8205,7 @@
         </is>
       </c>
       <c r="Y83">
-        <v>0.1734558621928985</v>
+        <v>0.1795933858959678</v>
       </c>
       <c r="Z83">
         <v>0</v>
@@ -8216,13 +8216,13 @@
         <v>0.8200000000000001</v>
       </c>
       <c r="B84">
-        <v>0.2674553080925325</v>
+        <v>0.2665639966454234</v>
       </c>
       <c r="C84">
-        <v>-14.64042822705949</v>
+        <v>-14.09338610844721</v>
       </c>
       <c r="D84">
-        <v>20.09499177294051</v>
+        <v>20.64203389155279</v>
       </c>
       <c r="E84">
         <v>36.28442</v>
@@ -8249,37 +8249,37 @@
         <v>1.19</v>
       </c>
       <c r="M84">
-        <v>6.945232884</v>
+        <v>6.707882654</v>
       </c>
       <c r="N84">
-        <v>-5.755232884</v>
+        <v>-5.517882653999999</v>
       </c>
       <c r="O84">
-        <v>-1.26615123448</v>
+        <v>-1.21393418388</v>
       </c>
       <c r="P84">
-        <v>-4.48908164952</v>
+        <v>-4.30394847012</v>
       </c>
       <c r="Q84">
-        <v>-4.29908164952</v>
+        <v>-4.11394847012</v>
       </c>
       <c r="R84">
         <v>4.555555555555557</v>
       </c>
       <c r="S84">
-        <v>0.6520575480088233</v>
+        <v>0.6767169288582175</v>
       </c>
       <c r="T84">
-        <v>6.648640176364111</v>
+        <v>6.641136578943004</v>
       </c>
       <c r="U84">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V84">
-        <v>0.03769492029606649</v>
+        <v>0.03902870898373351</v>
       </c>
       <c r="W84">
-        <v>0.1830304261596882</v>
+        <v>0.1765304261596881</v>
       </c>
       <c r="X84" t="inlineStr">
         <is>
@@ -8287,7 +8287,7 @@
         </is>
       </c>
       <c r="Y84">
-        <v>0.1713405468003023</v>
+        <v>0.1774032226533342</v>
       </c>
       <c r="Z84">
         <v>0</v>
@@ -8298,13 +8298,13 @@
         <v>0.8300000000000001</v>
       </c>
       <c r="B85">
-        <v>0.2691993080925325</v>
+        <v>0.2683079966454234</v>
       </c>
       <c r="C85">
-        <v>-15.22404036338265</v>
+        <v>-14.6776868252325</v>
       </c>
       <c r="D85">
-        <v>19.95668963661736</v>
+        <v>20.50304317476751</v>
       </c>
       <c r="E85">
         <v>36.72973</v>
@@ -8331,37 +8331,37 @@
         <v>1.19</v>
       </c>
       <c r="M85">
-        <v>7.029930846000001</v>
+        <v>6.789686101000001</v>
       </c>
       <c r="N85">
-        <v>-5.839930846000001</v>
+        <v>-5.599686101000001</v>
       </c>
       <c r="O85">
-        <v>-1.28478478612</v>
+        <v>-1.23193094222</v>
       </c>
       <c r="P85">
-        <v>-4.555146059880001</v>
+        <v>-4.367755158780001</v>
       </c>
       <c r="Q85">
-        <v>-4.365146059880001</v>
+        <v>-4.177755158780002</v>
       </c>
       <c r="R85">
         <v>4.882352941176473</v>
       </c>
       <c r="S85">
-        <v>0.6894844625975777</v>
+        <v>0.7159767482028188</v>
       </c>
       <c r="T85">
-        <v>7.039736657326707</v>
+        <v>7.031791671822006</v>
       </c>
       <c r="U85">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V85">
-        <v>0.03724076462984881</v>
+        <v>0.03855848357429093</v>
       </c>
       <c r="W85">
-        <v>0.1831168065674028</v>
+        <v>0.1766168065674028</v>
       </c>
       <c r="X85" t="inlineStr">
         <is>
@@ -8369,7 +8369,7 @@
         </is>
       </c>
       <c r="Y85">
-        <v>0.1692762028629491</v>
+        <v>0.1752658344285951</v>
       </c>
       <c r="Z85">
         <v>0</v>
@@ -8380,13 +8380,13 @@
         <v>0.84</v>
       </c>
       <c r="B86">
-        <v>0.2709433080925324</v>
+        <v>0.2700519966454235</v>
       </c>
       <c r="C86">
-        <v>-15.80576180598116</v>
+        <v>-15.26012830555407</v>
       </c>
       <c r="D86">
-        <v>19.82027819401884</v>
+        <v>20.36591169444593</v>
       </c>
       <c r="E86">
         <v>37.17504</v>
@@ -8413,37 +8413,37 @@
         <v>1.19</v>
       </c>
       <c r="M86">
-        <v>7.114628808</v>
+        <v>6.871489548</v>
       </c>
       <c r="N86">
-        <v>-5.924628808</v>
+        <v>-5.681489548</v>
       </c>
       <c r="O86">
-        <v>-1.30341833776</v>
+        <v>-1.24992770056</v>
       </c>
       <c r="P86">
-        <v>-4.621210470239999</v>
+        <v>-4.43156184744</v>
       </c>
       <c r="Q86">
-        <v>-4.43121047024</v>
+        <v>-4.24156184744</v>
       </c>
       <c r="R86">
         <v>5.249999999999999</v>
       </c>
       <c r="S86">
-        <v>0.7315897415099258</v>
+        <v>0.7601440449654945</v>
       </c>
       <c r="T86">
-        <v>7.479720198409622</v>
+        <v>7.471278651310877</v>
       </c>
       <c r="U86">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V86">
-        <v>0.03679742219377919</v>
+        <v>0.03809945400793033</v>
       </c>
       <c r="W86">
-        <v>0.1832011302987432</v>
+        <v>0.1767011302987432</v>
       </c>
       <c r="X86" t="inlineStr">
         <is>
@@ -8451,7 +8451,7 @@
         </is>
       </c>
       <c r="Y86">
-        <v>0.1672610099717237</v>
+        <v>0.1731793363996833</v>
       </c>
       <c r="Z86">
         <v>0</v>
@@ -8462,13 +8462,13 @@
         <v>0.85</v>
       </c>
       <c r="B87">
-        <v>0.2726873080925324</v>
+        <v>0.2717959966454234</v>
       </c>
       <c r="C87">
-        <v>-16.38563106243893</v>
+        <v>-15.84074760721588</v>
       </c>
       <c r="D87">
-        <v>19.68571893756107</v>
+        <v>20.23060239278412</v>
       </c>
       <c r="E87">
         <v>37.62034999999999</v>
@@ -8495,37 +8495,37 @@
         <v>1.19</v>
       </c>
       <c r="M87">
-        <v>7.19932677</v>
+        <v>6.953292994999999</v>
       </c>
       <c r="N87">
-        <v>-6.009326769999999</v>
+        <v>-5.763292994999999</v>
       </c>
       <c r="O87">
-        <v>-1.3220518894</v>
+        <v>-1.2679244589</v>
       </c>
       <c r="P87">
-        <v>-4.6872748806</v>
+        <v>-4.495368536099999</v>
       </c>
       <c r="Q87">
-        <v>-4.497274880599999</v>
+        <v>-4.3053685361</v>
       </c>
       <c r="R87">
         <v>5.666666666666666</v>
       </c>
       <c r="S87">
-        <v>0.7793090576105877</v>
+        <v>0.8102003146298608</v>
       </c>
       <c r="T87">
-        <v>7.978368211636931</v>
+        <v>7.969363894731602</v>
       </c>
       <c r="U87">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V87">
-        <v>0.03636451134444061</v>
+        <v>0.03765122513724881</v>
       </c>
       <c r="W87">
-        <v>0.1832834699422874</v>
+        <v>0.1767834699422874</v>
       </c>
       <c r="X87" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         </is>
       </c>
       <c r="Y87">
-        <v>0.1652932333838211</v>
+        <v>0.1711419324420401</v>
       </c>
       <c r="Z87">
         <v>0</v>
@@ -8544,13 +8544,13 @@
         <v>0.86</v>
       </c>
       <c r="B88">
-        <v>0.2744313080925325</v>
+        <v>0.2735399966454234</v>
       </c>
       <c r="C88">
-        <v>-16.96368560168405</v>
+        <v>-16.41958080968685</v>
       </c>
       <c r="D88">
-        <v>19.55297439831594</v>
+        <v>20.09707919031314</v>
       </c>
       <c r="E88">
         <v>38.06565999999999</v>
@@ -8577,37 +8577,37 @@
         <v>1.19</v>
       </c>
       <c r="M88">
-        <v>7.284024732</v>
+        <v>7.035096442</v>
       </c>
       <c r="N88">
-        <v>-6.094024731999999</v>
+        <v>-5.845096441999999</v>
       </c>
       <c r="O88">
-        <v>-1.34068544104</v>
+        <v>-1.28592121724</v>
       </c>
       <c r="P88">
-        <v>-4.75333929096</v>
+        <v>-4.559175224759999</v>
       </c>
       <c r="Q88">
-        <v>-4.56333929096</v>
+        <v>-4.369175224759999</v>
       </c>
       <c r="R88">
         <v>6.142857142857142</v>
       </c>
       <c r="S88">
-        <v>0.8338454188684867</v>
+        <v>0.8674074799605652</v>
       </c>
       <c r="T88">
-        <v>8.548251655325283</v>
+        <v>8.538604172926718</v>
       </c>
       <c r="U88">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V88">
-        <v>0.0359416681892727</v>
+        <v>0.03721342019379242</v>
       </c>
       <c r="W88">
-        <v>0.1833638947104003</v>
+        <v>0.1768638947104003</v>
       </c>
       <c r="X88" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         </is>
       </c>
       <c r="Y88">
-        <v>0.1633712190421487</v>
+        <v>0.1691519099717838</v>
       </c>
       <c r="Z88">
         <v>0</v>
@@ -8626,13 +8626,13 @@
         <v>0.87</v>
       </c>
       <c r="B89">
-        <v>0.2761753080925324</v>
+        <v>0.2752839966454234</v>
       </c>
       <c r="C89">
-        <v>-17.53996188877355</v>
+        <v>-16.99666304617456</v>
       </c>
       <c r="D89">
-        <v>19.42200811122645</v>
+        <v>19.96530695382544</v>
       </c>
       <c r="E89">
         <v>38.51097</v>
@@ -8659,37 +8659,37 @@
         <v>1.19</v>
       </c>
       <c r="M89">
-        <v>7.368722694000001</v>
+        <v>7.116899889000001</v>
       </c>
       <c r="N89">
-        <v>-6.178722694000001</v>
+        <v>-5.926899889000001</v>
       </c>
       <c r="O89">
-        <v>-1.35931899268</v>
+        <v>-1.30391797558</v>
       </c>
       <c r="P89">
-        <v>-4.819403701320001</v>
+        <v>-4.622981913420001</v>
       </c>
       <c r="Q89">
-        <v>-4.629403701320001</v>
+        <v>-4.432981913420001</v>
       </c>
       <c r="R89">
         <v>6.692307692307692</v>
       </c>
       <c r="S89">
-        <v>0.8967719895506779</v>
+        <v>0.9334157476498394</v>
       </c>
       <c r="T89">
-        <v>9.205809474965688</v>
+        <v>9.195419878536464</v>
       </c>
       <c r="U89">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V89">
-        <v>0.03552854556640749</v>
+        <v>0.0367856797317948</v>
       </c>
       <c r="W89">
-        <v>0.1834424706332693</v>
+        <v>0.1769424706332693</v>
       </c>
       <c r="X89" t="inlineStr">
         <is>
@@ -8697,7 +8697,7 @@
         </is>
       </c>
       <c r="Y89">
-        <v>0.1614933889382159</v>
+        <v>0.1672076351445217</v>
       </c>
       <c r="Z89">
         <v>0</v>
@@ -8708,13 +8708,13 @@
         <v>0.88</v>
       </c>
       <c r="B90">
-        <v>0.2779193080925324</v>
+        <v>0.2770279966454234</v>
       </c>
       <c r="C90">
-        <v>-18.11449541828944</v>
+        <v>-17.57202853444532</v>
       </c>
       <c r="D90">
-        <v>19.29278458171056</v>
+        <v>19.83525146555468</v>
       </c>
       <c r="E90">
         <v>38.95628</v>
@@ -8741,37 +8741,37 @@
         <v>1.19</v>
       </c>
       <c r="M90">
-        <v>7.453420656</v>
+        <v>7.198703336</v>
       </c>
       <c r="N90">
-        <v>-6.263420656000001</v>
+        <v>-6.008703336</v>
       </c>
       <c r="O90">
-        <v>-1.37795254432</v>
+        <v>-1.32191473392</v>
       </c>
       <c r="P90">
-        <v>-4.885468111680001</v>
+        <v>-4.68678860208</v>
       </c>
       <c r="Q90">
-        <v>-4.69546811168</v>
+        <v>-4.496788602080001</v>
       </c>
       <c r="R90">
         <v>7.333333333333334</v>
       </c>
       <c r="S90">
-        <v>0.9701863220132345</v>
+        <v>1.010425393287326</v>
       </c>
       <c r="T90">
-        <v>9.972960264546163</v>
+        <v>9.961704868414504</v>
       </c>
       <c r="U90">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V90">
-        <v>0.03512481209406196</v>
+        <v>0.0363676606439335</v>
       </c>
       <c r="W90">
-        <v>0.1835192607397094</v>
+        <v>0.1770192607397094</v>
       </c>
       <c r="X90" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         </is>
       </c>
       <c r="Y90">
-        <v>0.1596582367911906</v>
+        <v>0.165307548381516</v>
       </c>
       <c r="Z90">
         <v>0</v>
@@ -8790,13 +8790,13 @@
         <v>0.89</v>
       </c>
       <c r="B91">
-        <v>0.2796633080925324</v>
+        <v>0.2787719966454234</v>
       </c>
       <c r="C91">
-        <v>-18.68732074641041</v>
+        <v>-18.14571060644746</v>
       </c>
       <c r="D91">
-        <v>19.16526925358959</v>
+        <v>19.70687939355254</v>
       </c>
       <c r="E91">
         <v>39.40159</v>
@@ -8823,37 +8823,37 @@
         <v>1.19</v>
       </c>
       <c r="M91">
-        <v>7.538118618</v>
+        <v>7.280506783</v>
       </c>
       <c r="N91">
-        <v>-6.348118618000001</v>
+        <v>-6.090506783</v>
       </c>
       <c r="O91">
-        <v>-1.39658609596</v>
+        <v>-1.33991149226</v>
       </c>
       <c r="P91">
-        <v>-4.951532522040001</v>
+        <v>-4.75059529074</v>
       </c>
       <c r="Q91">
-        <v>-4.761532522040001</v>
+        <v>-4.56059529074</v>
       </c>
       <c r="R91">
         <v>8.090909090909092</v>
       </c>
       <c r="S91">
-        <v>1.056948714923529</v>
+        <v>1.101436792677083</v>
       </c>
       <c r="T91">
-        <v>10.87959301586854</v>
+        <v>10.86731440190673</v>
       </c>
       <c r="U91">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V91">
-        <v>0.03473015128401632</v>
+        <v>0.03595903524343987</v>
       </c>
       <c r="W91">
-        <v>0.1835943252257801</v>
+        <v>0.1770943252257801</v>
       </c>
       <c r="X91" t="inlineStr">
         <is>
@@ -8861,7 +8861,7 @@
         </is>
       </c>
       <c r="Y91">
-        <v>0.1578643240182559</v>
+        <v>0.1634501601974538</v>
       </c>
       <c r="Z91">
         <v>0</v>
@@ -8872,13 +8872,13 @@
         <v>0.9</v>
       </c>
       <c r="B92">
-        <v>0.2814073080925324</v>
+        <v>0.2805159966454234</v>
       </c>
       <c r="C92">
-        <v>-19.25847152172001</v>
+        <v>-18.71774173679173</v>
       </c>
       <c r="D92">
-        <v>19.03942847827999</v>
+        <v>19.58015826320827</v>
       </c>
       <c r="E92">
         <v>39.8469</v>
@@ -8905,37 +8905,37 @@
         <v>1.19</v>
       </c>
       <c r="M92">
-        <v>7.62281658</v>
+        <v>7.36231023</v>
       </c>
       <c r="N92">
-        <v>-6.432816580000001</v>
+        <v>-6.172310230000001</v>
       </c>
       <c r="O92">
-        <v>-1.4152196476</v>
+        <v>-1.3579082506</v>
       </c>
       <c r="P92">
-        <v>-5.017596932400001</v>
+        <v>-4.8144019794</v>
       </c>
       <c r="Q92">
-        <v>-4.827596932400001</v>
+        <v>-4.6244019794</v>
       </c>
       <c r="R92">
         <v>9.000000000000002</v>
       </c>
       <c r="S92">
-        <v>1.161063586415882</v>
+        <v>1.210650471944792</v>
       </c>
       <c r="T92">
-        <v>11.9675523174554</v>
+        <v>11.95404584209741</v>
       </c>
       <c r="U92">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V92">
-        <v>0.03434426071419391</v>
+        <v>0.03555949040740164</v>
       </c>
       <c r="W92">
-        <v>0.1836677216121603</v>
+        <v>0.1771677216121603</v>
       </c>
       <c r="X92" t="inlineStr">
         <is>
@@ -8943,7 +8943,7 @@
         </is>
       </c>
       <c r="Y92">
-        <v>0.1561102759736086</v>
+        <v>0.161634047306371</v>
       </c>
       <c r="Z92">
         <v>0</v>
@@ -8954,13 +8954,13 @@
         <v>0.91</v>
       </c>
       <c r="B93">
-        <v>0.2831513080925325</v>
+        <v>0.2822599966454234</v>
       </c>
       <c r="C93">
-        <v>-19.82798051480901</v>
+        <v>-19.28815357013983</v>
       </c>
       <c r="D93">
-        <v>18.91522948519099</v>
+        <v>19.45505642986016</v>
       </c>
       <c r="E93">
         <v>40.29221</v>
@@ -8987,37 +8987,37 @@
         <v>1.19</v>
       </c>
       <c r="M93">
-        <v>7.707514542</v>
+        <v>7.444113677</v>
       </c>
       <c r="N93">
-        <v>-6.517514542000001</v>
+        <v>-6.254113676999999</v>
       </c>
       <c r="O93">
-        <v>-1.43385319924</v>
+        <v>-1.37590500894</v>
       </c>
       <c r="P93">
-        <v>-5.083661342760001</v>
+        <v>-4.878208668059999</v>
       </c>
       <c r="Q93">
-        <v>-4.893661342760002</v>
+        <v>-4.68820866806</v>
       </c>
       <c r="R93">
         <v>10.11111111111111</v>
       </c>
       <c r="S93">
-        <v>1.288315096017647</v>
+        <v>1.344133857716435</v>
       </c>
       <c r="T93">
-        <v>13.29728035272822</v>
+        <v>13.28227315788601</v>
       </c>
       <c r="U93">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V93">
-        <v>0.03396685125579618</v>
+        <v>0.03516872677655108</v>
       </c>
       <c r="W93">
-        <v>0.1837395048911476</v>
+        <v>0.1772395048911476</v>
       </c>
       <c r="X93" t="inlineStr">
         <is>
@@ -9025,7 +9025,7 @@
         </is>
       </c>
       <c r="Y93">
-        <v>0.1543947784354371</v>
+        <v>0.1598578489843231</v>
       </c>
       <c r="Z93">
         <v>0</v>
@@ -9036,13 +9036,13 @@
         <v>0.92</v>
       </c>
       <c r="B94">
-        <v>0.2848953080925324</v>
+        <v>0.2840039966454235</v>
       </c>
       <c r="C94">
-        <v>-20.39587964672665</v>
+        <v>-19.85697694754974</v>
       </c>
       <c r="D94">
-        <v>18.79264035327335</v>
+        <v>19.33154305245025</v>
       </c>
       <c r="E94">
         <v>40.73752</v>
@@ -9069,37 +9069,37 @@
         <v>1.19</v>
       </c>
       <c r="M94">
-        <v>7.792212504</v>
+        <v>7.525917123999999</v>
       </c>
       <c r="N94">
-        <v>-6.602212504000001</v>
+        <v>-6.335917124</v>
       </c>
       <c r="O94">
-        <v>-1.45248675088</v>
+        <v>-1.39390176728</v>
       </c>
       <c r="P94">
-        <v>-5.14972575312</v>
+        <v>-4.94201535672</v>
       </c>
       <c r="Q94">
-        <v>-4.959725753120001</v>
+        <v>-4.752015356719999</v>
       </c>
       <c r="R94">
         <v>11.50000000000001</v>
       </c>
       <c r="S94">
-        <v>1.447379483019853</v>
+        <v>1.51098808993099</v>
       </c>
       <c r="T94">
-        <v>14.95944039681925</v>
+        <v>14.94255730262176</v>
       </c>
       <c r="U94">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V94">
-        <v>0.03359764635084187</v>
+        <v>0.03478645800724074</v>
       </c>
       <c r="W94">
-        <v>0.1838097276640699</v>
+        <v>0.1773097276640699</v>
       </c>
       <c r="X94" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         </is>
       </c>
       <c r="Y94">
-        <v>0.1527165743220085</v>
+        <v>0.158120263669276</v>
       </c>
       <c r="Z94">
         <v>0</v>
@@ -9118,13 +9118,13 @@
         <v>0.93</v>
       </c>
       <c r="B95">
-        <v>0.2866393080925325</v>
+        <v>0.2857479966454234</v>
       </c>
       <c r="C95">
-        <v>-20.96220001633264</v>
+        <v>-20.42424193182375</v>
       </c>
       <c r="D95">
-        <v>18.67162998366736</v>
+        <v>19.20958806817625</v>
       </c>
       <c r="E95">
         <v>41.18283</v>
@@ -9151,37 +9151,37 @@
         <v>1.19</v>
       </c>
       <c r="M95">
-        <v>7.876910466000001</v>
+        <v>7.607720571000001</v>
       </c>
       <c r="N95">
-        <v>-6.686910466</v>
+        <v>-6.417720571</v>
       </c>
       <c r="O95">
-        <v>-1.47112030252</v>
+        <v>-1.41189852562</v>
       </c>
       <c r="P95">
-        <v>-5.21579016348</v>
+        <v>-5.00582204538</v>
       </c>
       <c r="Q95">
-        <v>-5.02579016348</v>
+        <v>-4.815822045380001</v>
       </c>
       <c r="R95">
         <v>13.2857142857143</v>
       </c>
       <c r="S95">
-        <v>1.651890837736975</v>
+        <v>1.725514959921132</v>
       </c>
       <c r="T95">
-        <v>17.09650331065058</v>
+        <v>17.07720834585345</v>
       </c>
       <c r="U95">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V95">
-        <v>0.03323638133631669</v>
+        <v>0.03441241007167901</v>
       </c>
       <c r="W95">
-        <v>0.1838784402698326</v>
+        <v>0.1773784402698326</v>
       </c>
       <c r="X95" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="Y95">
-        <v>0.1510744606196214</v>
+        <v>0.1564200457803592</v>
       </c>
       <c r="Z95">
         <v>0</v>
@@ -9200,13 +9200,13 @@
         <v>0.9400000000000001</v>
       </c>
       <c r="B96">
-        <v>0.2883833080925324</v>
+        <v>0.2874919966454235</v>
       </c>
       <c r="C96">
-        <v>-21.52697192659922</v>
+        <v>-20.98997783190311</v>
       </c>
       <c r="D96">
-        <v>18.55216807340079</v>
+        <v>19.08916216809689</v>
       </c>
       <c r="E96">
         <v>41.62814</v>
@@ -9233,37 +9233,37 @@
         <v>1.19</v>
       </c>
       <c r="M96">
-        <v>7.961608428000001</v>
+        <v>7.689524018000001</v>
       </c>
       <c r="N96">
-        <v>-6.771608428</v>
+        <v>-6.499524018000001</v>
       </c>
       <c r="O96">
-        <v>-1.48975385416</v>
+        <v>-1.42989528396</v>
       </c>
       <c r="P96">
-        <v>-5.28185457384</v>
+        <v>-5.06962873404</v>
       </c>
       <c r="Q96">
-        <v>-5.091854573840001</v>
+        <v>-4.879628734040001</v>
       </c>
       <c r="R96">
         <v>15.66666666666668</v>
       </c>
       <c r="S96">
-        <v>1.924572644026471</v>
+        <v>2.011550786574654</v>
       </c>
       <c r="T96">
-        <v>19.94592052909234</v>
+        <v>19.92340973682903</v>
       </c>
       <c r="U96">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V96">
-        <v>0.03288280281146225</v>
+        <v>0.03404632060283136</v>
       </c>
       <c r="W96">
-        <v>0.1839456909052599</v>
+        <v>0.1774456909052599</v>
       </c>
       <c r="X96" t="inlineStr">
         <is>
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="Y96">
-        <v>0.1494672855066467</v>
+        <v>0.1547560027401426</v>
       </c>
       <c r="Z96">
         <v>0</v>
@@ -9282,13 +9282,13 @@
         <v>0.9500000000000001</v>
       </c>
       <c r="B97">
-        <v>0.2901273080925325</v>
+        <v>0.2892359966454234</v>
       </c>
       <c r="C97">
-        <v>-22.09022490990986</v>
+        <v>-21.55421322635079</v>
       </c>
       <c r="D97">
-        <v>18.43422509009014</v>
+        <v>18.97023677364921</v>
       </c>
       <c r="E97">
         <v>42.07345</v>
@@ -9315,37 +9315,37 @@
         <v>1.19</v>
       </c>
       <c r="M97">
-        <v>8.046306390000002</v>
+        <v>7.771327465000001</v>
       </c>
       <c r="N97">
-        <v>-6.856306390000002</v>
+        <v>-6.581327465000001</v>
       </c>
       <c r="O97">
-        <v>-1.5083874058</v>
+        <v>-1.4478920423</v>
       </c>
       <c r="P97">
-        <v>-5.347918984200001</v>
+        <v>-5.133435422700001</v>
       </c>
       <c r="Q97">
-        <v>-5.157918984200002</v>
+        <v>-4.9434354227</v>
       </c>
       <c r="R97">
         <v>19.00000000000003</v>
       </c>
       <c r="S97">
-        <v>2.306327172831766</v>
+        <v>2.412000943889586</v>
       </c>
       <c r="T97">
-        <v>23.93510463491083</v>
+        <v>23.90809168419484</v>
       </c>
       <c r="U97">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V97">
-        <v>0.03253666804502581</v>
+        <v>0.03368793828069629</v>
       </c>
       <c r="W97">
-        <v>0.1840115257378361</v>
+        <v>0.1775115257378361</v>
       </c>
       <c r="X97" t="inlineStr">
         <is>
@@ -9353,7 +9353,7 @@
         </is>
       </c>
       <c r="Y97">
-        <v>0.1478939456592081</v>
+        <v>0.153126992184983</v>
       </c>
       <c r="Z97">
         <v>0</v>
@@ -9364,13 +9364,13 @@
         <v>0.96</v>
       </c>
       <c r="B98">
-        <v>0.2918713080925324</v>
+        <v>0.2909799966454234</v>
       </c>
       <c r="C98">
-        <v>-22.65198775239916</v>
+        <v>-22.11697598596186</v>
       </c>
       <c r="D98">
-        <v>18.31777224760084</v>
+        <v>18.85278401403813</v>
       </c>
       <c r="E98">
         <v>42.51875999999999</v>
@@ -9397,37 +9397,37 @@
         <v>1.19</v>
       </c>
       <c r="M98">
-        <v>8.131004352</v>
+        <v>7.853130911999999</v>
       </c>
       <c r="N98">
-        <v>-6.941004352</v>
+        <v>-6.663130912</v>
       </c>
       <c r="O98">
-        <v>-1.52702095744</v>
+        <v>-1.46588880064</v>
       </c>
       <c r="P98">
-        <v>-5.413983394560001</v>
+        <v>-5.19724211136</v>
       </c>
       <c r="Q98">
-        <v>-5.223983394560001</v>
+        <v>-5.00724211136</v>
       </c>
       <c r="R98">
         <v>23.99999999999998</v>
       </c>
       <c r="S98">
-        <v>2.878958966039701</v>
+        <v>3.012676179861975</v>
       </c>
       <c r="T98">
-        <v>29.91888079363846</v>
+        <v>29.88511460524348</v>
       </c>
       <c r="U98">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V98">
-        <v>0.0321977444195568</v>
+        <v>0.03333702225693905</v>
       </c>
       <c r="W98">
-        <v>0.1840759890114003</v>
+        <v>0.1775759890114003</v>
       </c>
       <c r="X98" t="inlineStr">
         <is>
@@ -9435,7 +9435,7 @@
         </is>
       </c>
       <c r="Y98">
-        <v>0.1463533837252581</v>
+        <v>0.1515319193497229</v>
       </c>
       <c r="Z98">
         <v>0</v>
@@ -9446,13 +9446,13 @@
         <v>0.97</v>
       </c>
       <c r="B99">
-        <v>0.2936153080925324</v>
+        <v>0.2927239966454234</v>
       </c>
       <c r="C99">
-        <v>-23.21228851737593</v>
+        <v>-22.67829329553917</v>
       </c>
       <c r="D99">
-        <v>18.20278148262407</v>
+        <v>18.73677670446083</v>
       </c>
       <c r="E99">
         <v>42.96407</v>
@@ -9479,37 +9479,37 @@
         <v>1.19</v>
       </c>
       <c r="M99">
-        <v>8.215702314000001</v>
+        <v>7.934934359000001</v>
       </c>
       <c r="N99">
-        <v>-7.025702314000002</v>
+        <v>-6.744934359</v>
       </c>
       <c r="O99">
-        <v>-1.54565450908</v>
+        <v>-1.48388555898</v>
       </c>
       <c r="P99">
-        <v>-5.480047804920002</v>
+        <v>-5.26104880002</v>
       </c>
       <c r="Q99">
-        <v>-5.290047804920002</v>
+        <v>-5.07104880002</v>
       </c>
       <c r="R99">
         <v>32.33333333333331</v>
       </c>
       <c r="S99">
-        <v>3.833345288052935</v>
+        <v>4.0138015731493</v>
       </c>
       <c r="T99">
-        <v>39.89184105818462</v>
+        <v>39.84681947365798</v>
       </c>
       <c r="U99">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V99">
-        <v>0.03186580891007682</v>
+        <v>0.03299334161511493</v>
       </c>
       <c r="W99">
-        <v>0.1841391231453034</v>
+        <v>0.1776391231453034</v>
       </c>
       <c r="X99" t="inlineStr">
         <is>
@@ -9517,7 +9517,7 @@
         </is>
       </c>
       <c r="Y99">
-        <v>0.1448445859548946</v>
+        <v>0.1499697346141589</v>
       </c>
       <c r="Z99">
         <v>0</v>
@@ -9528,13 +9528,13 @@
         <v>0.98</v>
       </c>
       <c r="B100">
-        <v>0.2953593080925324</v>
+        <v>0.2944679966454234</v>
       </c>
       <c r="C100">
-        <v>-23.77115456786947</v>
+        <v>-23.23819167486986</v>
       </c>
       <c r="D100">
-        <v>18.08922543213053</v>
+        <v>18.62218832513014</v>
       </c>
       <c r="E100">
         <v>43.40938</v>
@@ -9561,37 +9561,37 @@
         <v>1.19</v>
       </c>
       <c r="M100">
-        <v>8.300400276000001</v>
+        <v>8.016737806</v>
       </c>
       <c r="N100">
-        <v>-7.110400276000002</v>
+        <v>-6.826737806000001</v>
       </c>
       <c r="O100">
-        <v>-1.56428806072</v>
+        <v>-1.50188231732</v>
       </c>
       <c r="P100">
-        <v>-5.546112215280001</v>
+        <v>-5.324855488680001</v>
       </c>
       <c r="Q100">
-        <v>-5.356112215280001</v>
+        <v>-5.134855488680001</v>
       </c>
       <c r="R100">
         <v>48.99999999999996</v>
       </c>
       <c r="S100">
-        <v>5.742117932079402</v>
+        <v>6.01605235972395</v>
       </c>
       <c r="T100">
-        <v>59.83776158727693</v>
+        <v>59.77022921048697</v>
       </c>
       <c r="U100">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V100">
-        <v>0.03154064759466787</v>
+        <v>0.03265667486394028</v>
       </c>
       <c r="W100">
-        <v>0.1842009688274942</v>
+        <v>0.1777009688274942</v>
       </c>
       <c r="X100" t="inlineStr">
         <is>
@@ -9599,7 +9599,7 @@
         </is>
       </c>
       <c r="Y100">
-        <v>0.143366579975763</v>
+        <v>0.1484394311997285</v>
       </c>
       <c r="Z100">
         <v>0</v>
@@ -9610,13 +9610,13 @@
         <v>0.99</v>
       </c>
       <c r="B101">
-        <v>0.2971033080925324</v>
+        <v>0.2962119966454234</v>
       </c>
       <c r="C101">
-        <v>-24.32861258833733</v>
+        <v>-23.79669699893699</v>
       </c>
       <c r="D101">
-        <v>17.97707741166267</v>
+        <v>18.508993001063</v>
       </c>
       <c r="E101">
         <v>43.85469</v>
@@ -9643,37 +9643,37 @@
         <v>1.19</v>
       </c>
       <c r="M101">
-        <v>8.385098237999999</v>
+        <v>8.098541253</v>
       </c>
       <c r="N101">
-        <v>-7.195098238</v>
+        <v>-6.908541253000001</v>
       </c>
       <c r="O101">
-        <v>-1.58292161236</v>
+        <v>-1.51987907566</v>
       </c>
       <c r="P101">
-        <v>-5.61217662564</v>
+        <v>-5.388662177340001</v>
       </c>
       <c r="Q101">
-        <v>-5.422176625640001</v>
+        <v>-5.198662177340001</v>
       </c>
       <c r="R101">
         <v>98.99999999999991</v>
       </c>
       <c r="S101">
-        <v>11.4684358641588</v>
+        <v>12.0228047194479</v>
       </c>
       <c r="T101">
-        <v>119.6755231745539</v>
+        <v>119.5404584209739</v>
       </c>
       <c r="U101">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V101">
-        <v>0.03122205519472174</v>
+        <v>0.03232680946127422</v>
       </c>
       <c r="W101">
-        <v>0.1842615651019639</v>
+        <v>0.1777615651019639</v>
       </c>
       <c r="X101" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         </is>
       </c>
       <c r="Y101">
-        <v>0.1419184327032805</v>
+        <v>0.1469400430057919</v>
       </c>
       <c r="Z101">
         <v>0</v>
